--- a/gameData/shared/MilitaryTechLevelUp.xlsx
+++ b/gameData/shared/MilitaryTechLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="1820" windowWidth="28720" windowHeight="14540" tabRatio="968" firstSheet="2" activeTab="15"/>
+    <workbookView xWindow="4820" yWindow="4020" windowWidth="28720" windowHeight="14540" tabRatio="968"/>
   </bookViews>
   <sheets>
     <sheet name="infantry_infantry" sheetId="27" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="7">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -128,6 +128,9 @@
   <si>
     <t>INT_coin</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_buildTime</t>
   </si>
 </sst>
 </file>
@@ -229,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -270,8 +273,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="60">
+  <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -336,8 +352,44 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -348,8 +400,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="60">
+  <cellStyles count="96">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -382,6 +437,24 @@
     <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -407,6 +480,24 @@
     <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -856,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -867,7 +958,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -886,8 +977,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -906,8 +1000,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -926,8 +1023,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -946,8 +1046,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -966,8 +1069,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -986,8 +1092,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1006,8 +1115,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1026,8 +1138,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="4">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1046,8 +1161,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="4">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1066,8 +1184,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="4">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1086,8 +1207,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="4">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1106,8 +1230,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="4">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1126,8 +1253,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="4">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1146,8 +1276,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="4">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1166,8 +1299,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="4">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1185,6 +1321,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -1201,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1212,7 +1351,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1231,8 +1370,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1251,8 +1393,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1271,8 +1416,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1291,8 +1439,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1311,8 +1462,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1331,8 +1485,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1351,8 +1508,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1371,8 +1531,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="4">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1391,8 +1554,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="4">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1411,8 +1577,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="4">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1431,8 +1600,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="4">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1451,8 +1623,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="4">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1471,8 +1646,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="4">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1491,8 +1669,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="4">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1511,8 +1692,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="4">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1530,6 +1714,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -1546,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1557,7 +1744,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1576,8 +1763,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1596,8 +1786,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1616,8 +1809,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1636,8 +1832,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1656,8 +1855,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1676,8 +1878,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1696,8 +1901,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1716,8 +1924,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="4">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1736,8 +1947,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="4">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1756,8 +1970,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="4">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1776,8 +1993,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="4">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1796,8 +2016,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="4">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1816,8 +2039,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="4">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1836,8 +2062,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="4">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1856,8 +2085,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="4">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1875,6 +2107,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -1891,10 +2126,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1902,7 +2137,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1921,8 +2156,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1941,8 +2179,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1961,8 +2202,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1981,8 +2225,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2001,8 +2248,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2021,8 +2271,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2041,8 +2294,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2061,8 +2317,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="4">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2081,8 +2340,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="4">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2101,8 +2363,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="4">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2121,8 +2386,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="4">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2141,8 +2409,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="4">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2161,8 +2432,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="4">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2181,8 +2455,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="4">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2201,8 +2478,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="4">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2220,6 +2500,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -2236,10 +2519,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2247,7 +2530,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2266,8 +2549,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2286,8 +2572,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2306,8 +2595,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2326,8 +2618,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2346,8 +2641,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2366,8 +2664,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2386,8 +2687,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2406,8 +2710,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="4">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2426,8 +2733,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="4">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2446,8 +2756,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="4">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2466,8 +2779,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="4">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2486,8 +2802,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="4">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2506,8 +2825,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="4">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2526,8 +2848,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="4">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2546,8 +2871,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="4">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2565,6 +2893,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -2581,10 +2912,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2592,7 +2923,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2611,8 +2942,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2631,8 +2965,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2651,8 +2988,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2671,8 +3011,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2691,8 +3034,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2711,8 +3057,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2731,8 +3080,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2751,8 +3103,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="4">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2771,8 +3126,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="4">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2791,8 +3149,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="4">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2811,8 +3172,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="4">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2831,8 +3195,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="4">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2851,8 +3218,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="4">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2871,8 +3241,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="4">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2891,8 +3264,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="4">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2910,6 +3286,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -2926,10 +3305,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2937,7 +3316,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2956,8 +3335,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2976,8 +3358,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2996,8 +3381,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3016,8 +3404,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3036,8 +3427,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3056,8 +3450,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3076,8 +3473,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3096,8 +3496,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="4">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3116,8 +3519,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="4">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3136,8 +3542,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="4">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3156,8 +3565,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="4">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3176,8 +3588,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="4">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3196,8 +3611,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="4">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3216,8 +3634,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="4">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3236,8 +3657,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="4">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3255,6 +3679,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -3271,10 +3698,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3282,7 +3709,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3301,8 +3728,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3321,8 +3751,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3341,8 +3774,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3361,8 +3797,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3381,8 +3820,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3401,8 +3843,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3421,8 +3866,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3441,8 +3889,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="4">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3461,8 +3912,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="4">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3481,8 +3935,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="4">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3501,8 +3958,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="4">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3521,8 +3981,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="4">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3541,8 +4004,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="4">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3561,8 +4027,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="4">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3581,8 +4050,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="4">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3600,6 +4072,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -3616,10 +4091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3627,7 +4102,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3646,8 +4121,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3666,8 +4144,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3686,8 +4167,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3706,8 +4190,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3726,8 +4213,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3746,8 +4236,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3766,8 +4259,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3786,8 +4282,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="4">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3806,8 +4305,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="4">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3826,8 +4328,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="4">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3846,8 +4351,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="4">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3866,8 +4374,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="4">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3886,8 +4397,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="4">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3906,8 +4420,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="4">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3926,8 +4443,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="4">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3945,6 +4465,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -3961,10 +4484,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3972,7 +4495,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3991,8 +4514,12 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4011,8 +4538,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4031,8 +4561,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4051,8 +4584,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4071,8 +4607,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4091,8 +4630,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4111,8 +4653,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4131,8 +4676,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="4">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4151,8 +4699,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="4">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4171,8 +4722,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="4">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4191,8 +4745,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="4">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4211,8 +4768,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="4">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4231,8 +4791,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="4">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4251,8 +4814,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="4">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4271,8 +4837,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="4">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4290,6 +4859,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -4306,10 +4878,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4317,7 +4889,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4336,8 +4908,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4356,8 +4931,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4376,8 +4954,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4396,8 +4977,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4416,8 +5000,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4436,8 +5023,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4456,8 +5046,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4476,8 +5069,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="4">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4496,8 +5092,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="4">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4516,8 +5115,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="4">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4536,8 +5138,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="4">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4556,8 +5161,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="4">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4576,8 +5184,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="4">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4596,8 +5207,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="4">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4616,8 +5230,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="4">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4635,6 +5252,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -4651,10 +5271,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4662,7 +5282,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4681,8 +5301,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4701,8 +5324,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4721,8 +5347,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4741,8 +5370,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4761,8 +5393,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4781,8 +5416,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4801,8 +5439,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4821,8 +5462,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="4">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4841,8 +5485,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="4">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4861,8 +5508,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="4">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4881,8 +5531,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="4">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4901,8 +5554,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="4">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4921,8 +5577,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="4">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4941,8 +5600,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="4">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4961,8 +5623,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="4">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4980,6 +5645,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -4996,10 +5664,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5007,7 +5675,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5026,8 +5694,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5046,8 +5717,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5066,8 +5740,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5086,8 +5763,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5106,8 +5786,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5126,8 +5809,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5146,8 +5832,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5166,8 +5855,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="4">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5186,8 +5878,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="4">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5206,8 +5901,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="4">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5226,8 +5924,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="4">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5246,8 +5947,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="4">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5266,8 +5970,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="4">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5286,8 +5993,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="4">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5306,8 +6016,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="4">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5325,6 +6038,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -5341,10 +6057,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5352,7 +6068,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5371,8 +6087,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5391,8 +6110,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5411,8 +6133,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5431,8 +6156,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5451,8 +6179,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5471,8 +6202,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5491,8 +6225,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5511,8 +6248,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="4">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5531,8 +6271,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="4">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5551,8 +6294,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="4">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5571,8 +6317,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="4">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5591,8 +6340,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="4">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5611,8 +6363,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="4">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5631,8 +6386,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="4">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5651,8 +6409,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="4">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5670,6 +6431,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -5686,10 +6450,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5697,7 +6461,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5716,8 +6480,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5736,8 +6503,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5756,8 +6526,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5776,8 +6549,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5796,8 +6572,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5816,8 +6595,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5836,8 +6618,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5856,8 +6641,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="4">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5876,8 +6664,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="4">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5896,8 +6687,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="4">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5916,8 +6710,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="4">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5936,8 +6733,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="4">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5956,8 +6756,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="4">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5976,8 +6779,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="4">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5996,8 +6802,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="4">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6015,6 +6824,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -6031,10 +6843,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6042,7 +6854,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6061,8 +6873,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6081,8 +6896,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6101,8 +6919,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="G3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6121,8 +6942,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="G4" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6141,8 +6965,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="G5" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6161,8 +6988,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="G6" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6181,8 +7011,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="G7" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6201,8 +7034,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="G8" s="4">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6221,8 +7057,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="G9" s="4">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6241,8 +7080,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="G10" s="4">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6261,8 +7103,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="G11" s="4">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6281,8 +7126,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="G12" s="4">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6301,8 +7149,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="G13" s="4">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6321,8 +7172,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="G14" s="4">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6341,8 +7195,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="G15" s="4">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6360,6 +7217,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/MilitaryTechLevelUp.xlsx
+++ b/gameData/shared/MilitaryTechLevelUp.xlsx
@@ -1,97 +1,117 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="4020" windowWidth="28720" windowHeight="14540" tabRatio="968"/>
+    <workbookView xWindow="4540" yWindow="2720" windowWidth="28720" windowHeight="14540" tabRatio="968" firstSheet="6" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="infantry_infantry" sheetId="27" r:id="rId1"/>
     <sheet name="infantry_archer" sheetId="28" r:id="rId2"/>
     <sheet name="infantry_cavalry" sheetId="29" r:id="rId3"/>
     <sheet name="infantry_siege" sheetId="30" r:id="rId4"/>
-    <sheet name="archer_infantry" sheetId="31" r:id="rId5"/>
-    <sheet name="archer_archer" sheetId="32" r:id="rId6"/>
-    <sheet name="archer_cavalry" sheetId="33" r:id="rId7"/>
-    <sheet name="archer_siege" sheetId="34" r:id="rId8"/>
-    <sheet name="cavalry_infantry" sheetId="35" r:id="rId9"/>
-    <sheet name="cavalry_archer" sheetId="36" r:id="rId10"/>
-    <sheet name="cavalry_cavalry" sheetId="37" r:id="rId11"/>
-    <sheet name="cavalry_siege" sheetId="38" r:id="rId12"/>
-    <sheet name="siege_infantry" sheetId="39" r:id="rId13"/>
-    <sheet name="siege_archer" sheetId="40" r:id="rId14"/>
-    <sheet name="siege_cavalry" sheetId="41" r:id="rId15"/>
-    <sheet name="siege_siege" sheetId="42" r:id="rId16"/>
+    <sheet name="infantry_hpAdd" sheetId="43" r:id="rId5"/>
+    <sheet name="archer_infantry" sheetId="31" r:id="rId6"/>
+    <sheet name="archer_archer" sheetId="32" r:id="rId7"/>
+    <sheet name="archer_cavalry" sheetId="33" r:id="rId8"/>
+    <sheet name="archer_siege" sheetId="34" r:id="rId9"/>
+    <sheet name="archer_hpAdd" sheetId="44" r:id="rId10"/>
+    <sheet name="cavalry_infantry" sheetId="35" r:id="rId11"/>
+    <sheet name="cavalry_archer" sheetId="36" r:id="rId12"/>
+    <sheet name="cavalry_cavalry" sheetId="37" r:id="rId13"/>
+    <sheet name="cavalry_siege" sheetId="38" r:id="rId14"/>
+    <sheet name="cavalry_hpAdd" sheetId="45" r:id="rId15"/>
+    <sheet name="siege_infantry" sheetId="39" r:id="rId16"/>
+    <sheet name="siege_archer" sheetId="40" r:id="rId17"/>
+    <sheet name="siege_cavalry" sheetId="41" r:id="rId18"/>
+    <sheet name="siege_siege" sheetId="42" r:id="rId19"/>
+    <sheet name="siege_hpAdd" sheetId="46" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -104,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="7">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -949,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1342,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
@@ -3308,7 +3328,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4089,12 +4109,1584 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>600</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>700</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>800</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>900</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>49536</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>600</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>700</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>800</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>900</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>49536</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>600</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>700</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>800</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>900</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>49536</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>600</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>700</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>800</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>900</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>49536</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4881,7 +6473,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5274,7 +6866,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/MilitaryTechLevelUp.xlsx
+++ b/gameData/shared/MilitaryTechLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="2720" windowWidth="28720" windowHeight="14540" tabRatio="968" firstSheet="6" activeTab="19"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="38340" windowHeight="16360" tabRatio="968" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="infantry_infantry" sheetId="27" r:id="rId1"/>
@@ -307,7 +307,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="96">
+  <cellStyleXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -322,6 +322,90 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -424,7 +508,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="96">
+  <cellStyles count="180">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -475,6 +559,48 @@
     <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -518,6 +644,48 @@
     <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -970,7 +1138,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1006,22 +1174,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>660</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -1029,22 +1197,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1740</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>155</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -1052,22 +1220,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>4560</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>258</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -1075,22 +1243,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>8460</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>413</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -1098,22 +1266,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>13920</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>774</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -1121,22 +1289,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>21000</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>1548</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -1144,22 +1312,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>39840</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2322</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -1167,22 +1335,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>54880</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>3096</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -1190,22 +1358,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>72320</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>4644</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -1213,22 +1381,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>93600</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>6192</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -1236,22 +1404,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>118400</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>12384</v>
+        <v>50400</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -1259,22 +1427,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>183700</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>18576</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -1282,22 +1450,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>225600</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>24768</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -1305,22 +1473,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>271700</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>1120</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>37152</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -1328,22 +1496,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>384000</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>1280</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>49536</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>79200</v>
       </c>
     </row>
   </sheetData>
@@ -1362,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1399,22 +1567,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>1453</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1520</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -1422,22 +1590,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>3829</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>155</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -1445,22 +1613,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>10032</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>258</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -1468,22 +1636,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>18612</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>413</v>
+        <v>8121</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -1491,22 +1659,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>30625</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>774</v>
+        <v>16041</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -1514,22 +1682,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>46201</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>1548</v>
+        <v>31881</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -1537,22 +1705,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>87648</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2322</v>
+        <v>47721</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -1560,22 +1728,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>120737</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>3096</v>
+        <v>63561</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -1583,22 +1751,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>159104</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>4644</v>
+        <v>79400</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -1606,22 +1774,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>205921</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>6192</v>
+        <v>95241</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -1629,22 +1797,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>260481</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>1280</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>12384</v>
+        <v>111081</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -1652,22 +1820,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>404141</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>18576</v>
+        <v>126921</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -1675,22 +1843,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>496321</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>1920</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>24768</v>
+        <v>142760</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -1698,22 +1866,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>597740</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>2240</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>37152</v>
+        <v>158600</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -1721,22 +1889,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>844801</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>2560</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>49536</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>174240</v>
       </c>
     </row>
   </sheetData>
@@ -1756,7 +1924,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1792,22 +1960,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>792</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1320</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -1815,22 +1983,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>2088</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>155</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -1838,22 +2006,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>5472</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>258</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -1861,22 +2029,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>10152</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>413</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -1884,22 +2052,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>16704</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>774</v>
+        <v>9240</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -1907,22 +2075,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>25200</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>1548</v>
+        <v>17880</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -1930,22 +2098,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>47808</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2322</v>
+        <v>26520</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -1953,22 +2121,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>65856</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>3096</v>
+        <v>35160</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -1976,22 +2144,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>86784</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>4644</v>
+        <v>43800</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -1999,22 +2167,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>112320</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>6192</v>
+        <v>52440</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -2022,22 +2190,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>142080</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>12384</v>
+        <v>61080</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -2045,22 +2213,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>220440</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>18576</v>
+        <v>69720</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -2068,22 +2236,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>270720</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>24768</v>
+        <v>78360</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -2091,22 +2259,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>326040</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>1120</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>37152</v>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>87000</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -2114,22 +2282,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>460800</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>1280</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>49536</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>95040</v>
       </c>
     </row>
   </sheetData>
@@ -2149,7 +2317,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2185,22 +2353,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>792</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1320</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -2208,22 +2376,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>2088</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>155</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -2231,22 +2399,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>5472</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>258</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -2254,22 +2422,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>10152</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>413</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -2277,22 +2445,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>16704</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>774</v>
+        <v>9240</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -2300,22 +2468,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>25200</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>1548</v>
+        <v>17880</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -2323,22 +2491,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>47808</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2322</v>
+        <v>26520</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -2346,22 +2514,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>65856</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>3096</v>
+        <v>35160</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -2369,22 +2537,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>86784</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>4644</v>
+        <v>43800</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -2392,22 +2560,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>112320</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>6192</v>
+        <v>52440</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -2415,22 +2583,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>142080</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>12384</v>
+        <v>61080</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -2438,22 +2606,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>220440</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>18576</v>
+        <v>69720</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -2461,22 +2629,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>270720</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>24768</v>
+        <v>78360</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -2484,22 +2652,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>326040</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>1120</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>37152</v>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>87000</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -2507,22 +2675,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>460800</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>1280</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>49536</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>95040</v>
       </c>
     </row>
   </sheetData>
@@ -2542,7 +2710,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2578,22 +2746,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>792</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1320</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -2601,22 +2769,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>2088</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>155</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -2624,22 +2792,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>5472</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>258</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -2647,22 +2815,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>10152</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>413</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -2670,22 +2838,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>16704</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>774</v>
+        <v>9240</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -2693,22 +2861,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>25200</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>1548</v>
+        <v>17880</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -2716,22 +2884,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>47808</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2322</v>
+        <v>26520</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -2739,22 +2907,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>65856</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>3096</v>
+        <v>35160</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -2762,22 +2930,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>86784</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>4644</v>
+        <v>43800</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -2785,22 +2953,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>112320</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>6192</v>
+        <v>52440</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -2808,22 +2976,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>142080</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>12384</v>
+        <v>61080</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -2831,22 +2999,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>220440</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>18576</v>
+        <v>69720</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -2854,22 +3022,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>270720</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>24768</v>
+        <v>78360</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -2877,22 +3045,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>326040</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>1120</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>37152</v>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>87000</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -2900,22 +3068,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>460800</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>1280</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>49536</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>95040</v>
       </c>
     </row>
   </sheetData>
@@ -2935,7 +3103,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="G1" sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2971,22 +3139,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>792</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1320</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -2994,22 +3162,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>2088</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>155</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -3017,22 +3185,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>5472</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>258</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -3040,22 +3208,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>10152</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>413</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -3063,22 +3231,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>16704</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>774</v>
+        <v>9240</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -3086,22 +3254,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>25200</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>1548</v>
+        <v>17880</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -3109,22 +3277,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>47808</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2322</v>
+        <v>26520</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -3132,22 +3300,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>65856</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>3096</v>
+        <v>35160</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -3155,22 +3323,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>86784</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>4644</v>
+        <v>43800</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -3178,22 +3346,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>112320</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>6192</v>
+        <v>52440</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -3201,22 +3369,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>142080</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>12384</v>
+        <v>61080</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -3224,22 +3392,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>220440</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>18576</v>
+        <v>69720</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -3247,22 +3415,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>270720</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>24768</v>
+        <v>78360</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -3270,22 +3438,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>326040</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>1120</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>37152</v>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>87000</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -3293,22 +3461,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>460800</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>1280</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>49536</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>95040</v>
       </c>
     </row>
   </sheetData>
@@ -3328,7 +3496,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3364,22 +3532,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>1584</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2040</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -3387,22 +3555,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>4176</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>155</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -3410,22 +3578,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>10944</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>258</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -3433,22 +3601,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>20304</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>413</v>
+        <v>9240</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -3456,22 +3624,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>33408</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>774</v>
+        <v>17880</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -3479,22 +3647,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>50400</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>1548</v>
+        <v>35160</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -3502,22 +3670,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>95616</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2322</v>
+        <v>52440</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -3525,22 +3693,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>131712</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>3096</v>
+        <v>69720</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -3548,22 +3716,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>173568</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>4644</v>
+        <v>87000</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -3571,22 +3739,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>224640</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>6192</v>
+        <v>104280</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -3594,22 +3762,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>284160</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>1280</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>12384</v>
+        <v>121560</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -3617,22 +3785,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>440880</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>18576</v>
+        <v>138840</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -3640,22 +3808,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>541440</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>1920</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>24768</v>
+        <v>156120</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -3663,22 +3831,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>652080</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>2240</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>37152</v>
+        <v>173400</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -3686,22 +3854,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>921600</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>2560</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>49536</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>190080</v>
       </c>
     </row>
   </sheetData>
@@ -3721,7 +3889,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3757,22 +3925,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>990</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
-        <v>95</v>
+      <c r="G2" s="4">
+        <v>2100</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -3780,22 +3948,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>2610</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4">
-        <v>155</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -3803,22 +3971,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>6840</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>258</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -3826,22 +3994,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>12690</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4">
-        <v>413</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -3849,22 +4017,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>20880</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G6" s="4">
-        <v>774</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -3872,22 +4040,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>31500</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G7" s="4">
-        <v>1548</v>
+        <v>22800</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -3895,22 +4063,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>59760</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G8" s="4">
-        <v>2322</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -3918,22 +4086,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>82320</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="G9" s="4">
-        <v>3096</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -3941,22 +4109,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>108480</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="G10" s="4">
-        <v>4644</v>
+        <v>55200</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -3964,22 +4132,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>140400</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="G11" s="4">
-        <v>6192</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -3987,22 +4155,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>177600</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="G12" s="4">
-        <v>12384</v>
+        <v>76800</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -4010,22 +4178,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>275550</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="G13" s="4">
-        <v>18576</v>
+        <v>87600</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -4033,22 +4201,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>338400</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="G14" s="4">
-        <v>24768</v>
+        <v>98400</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -4056,22 +4224,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>407550</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>37152</v>
+        <v>1120</v>
+      </c>
+      <c r="G15" s="1">
+        <v>109200</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -4079,22 +4247,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>576000</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>49536</v>
+        <v>1280</v>
+      </c>
+      <c r="G16" s="1">
+        <v>118800</v>
       </c>
     </row>
   </sheetData>
@@ -4114,7 +4282,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4150,22 +4318,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>990</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
-        <v>95</v>
+      <c r="G2" s="4">
+        <v>2100</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -4173,22 +4341,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>2610</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4">
-        <v>155</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -4196,22 +4364,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>6840</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>258</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -4219,22 +4387,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>12690</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4">
-        <v>413</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -4242,22 +4410,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>20880</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G6" s="4">
-        <v>774</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -4265,22 +4433,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>31500</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G7" s="4">
-        <v>1548</v>
+        <v>22800</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -4288,22 +4456,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>59760</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G8" s="4">
-        <v>2322</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -4311,22 +4479,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>82320</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="G9" s="4">
-        <v>3096</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -4334,22 +4502,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>108480</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="G10" s="4">
-        <v>4644</v>
+        <v>55200</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -4357,22 +4525,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>140400</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="G11" s="4">
-        <v>6192</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -4380,22 +4548,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>177600</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="G12" s="4">
-        <v>12384</v>
+        <v>76800</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -4403,22 +4571,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>275550</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="G13" s="4">
-        <v>18576</v>
+        <v>87600</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -4426,22 +4594,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>338400</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="G14" s="4">
-        <v>24768</v>
+        <v>98400</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -4449,22 +4617,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>407550</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>37152</v>
+        <v>1120</v>
+      </c>
+      <c r="G15" s="1">
+        <v>109200</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -4472,22 +4640,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>576000</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>49536</v>
+        <v>1280</v>
+      </c>
+      <c r="G16" s="1">
+        <v>118800</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4675,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4543,22 +4711,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>990</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
-        <v>95</v>
+      <c r="G2" s="4">
+        <v>2100</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -4566,22 +4734,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>2610</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4">
-        <v>155</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -4589,22 +4757,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>6840</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>258</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -4612,22 +4780,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>12690</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4">
-        <v>413</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -4635,22 +4803,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>20880</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G6" s="4">
-        <v>774</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -4658,22 +4826,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>31500</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G7" s="4">
-        <v>1548</v>
+        <v>22800</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -4681,22 +4849,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>59760</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G8" s="4">
-        <v>2322</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -4704,22 +4872,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>82320</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="G9" s="4">
-        <v>3096</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -4727,22 +4895,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>108480</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="G10" s="4">
-        <v>4644</v>
+        <v>55200</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -4750,22 +4918,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>140400</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="G11" s="4">
-        <v>6192</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -4773,22 +4941,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>177600</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="G12" s="4">
-        <v>12384</v>
+        <v>76800</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -4796,22 +4964,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>275550</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="G13" s="4">
-        <v>18576</v>
+        <v>87600</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -4819,22 +4987,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>338400</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="G14" s="4">
-        <v>24768</v>
+        <v>98400</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -4842,22 +5010,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>407550</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>37152</v>
+        <v>1120</v>
+      </c>
+      <c r="G15" s="1">
+        <v>109200</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -4865,22 +5033,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>576000</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>49536</v>
+        <v>1280</v>
+      </c>
+      <c r="G16" s="1">
+        <v>118800</v>
       </c>
     </row>
   </sheetData>
@@ -4900,7 +5068,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4936,22 +5104,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>990</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
-        <v>95</v>
+      <c r="G2" s="4">
+        <v>2100</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -4959,22 +5127,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>2610</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4">
-        <v>155</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -4982,22 +5150,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>6840</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>258</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -5005,22 +5173,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>12690</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4">
-        <v>413</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -5028,22 +5196,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>20880</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G6" s="4">
-        <v>774</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -5051,22 +5219,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>31500</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G7" s="4">
-        <v>1548</v>
+        <v>22800</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -5074,22 +5242,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>59760</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G8" s="4">
-        <v>2322</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -5097,22 +5265,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>82320</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="G9" s="4">
-        <v>3096</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -5120,22 +5288,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>108480</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="G10" s="4">
-        <v>4644</v>
+        <v>55200</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -5143,22 +5311,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>140400</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="G11" s="4">
-        <v>6192</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -5166,22 +5334,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>177600</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="G12" s="4">
-        <v>12384</v>
+        <v>76800</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -5189,22 +5357,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>275550</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="G13" s="4">
-        <v>18576</v>
+        <v>87600</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -5212,22 +5380,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>338400</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="G14" s="4">
-        <v>24768</v>
+        <v>98400</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -5235,22 +5403,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>407550</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>37152</v>
+        <v>1120</v>
+      </c>
+      <c r="G15" s="1">
+        <v>109200</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -5258,22 +5426,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>576000</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>49536</v>
+        <v>1280</v>
+      </c>
+      <c r="G16" s="1">
+        <v>118800</v>
       </c>
     </row>
   </sheetData>
@@ -5293,7 +5461,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5329,22 +5497,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>660</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -5352,22 +5520,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1740</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>155</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -5375,22 +5543,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>4560</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>258</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -5398,22 +5566,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>8460</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>413</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -5421,22 +5589,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>13920</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>774</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -5444,22 +5612,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>21000</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>1548</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -5467,22 +5635,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>39840</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2322</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -5490,22 +5658,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>54880</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>3096</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -5513,22 +5681,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>72320</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>4644</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -5536,22 +5704,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>93600</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>6192</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -5559,22 +5727,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>118400</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>12384</v>
+        <v>50400</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -5582,22 +5750,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>183700</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>18576</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -5605,22 +5773,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>225600</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>24768</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -5628,22 +5796,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>271700</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>1120</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>37152</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -5651,22 +5819,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>384000</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>1280</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>49536</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>79200</v>
       </c>
     </row>
   </sheetData>
@@ -5685,8 +5853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="L20" sqref="L19:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5722,22 +5890,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>1980</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>95</v>
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3000</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -5745,22 +5913,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>5220</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4">
-        <v>155</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -5768,22 +5936,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>13680</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4">
-        <v>258</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -5791,22 +5959,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>25380</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G5" s="4">
-        <v>413</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -5814,22 +5982,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>41760</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G6" s="4">
-        <v>774</v>
+        <v>22800</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -5837,22 +6005,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>63000</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G7" s="4">
-        <v>1548</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -5860,22 +6028,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>119520</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="G8" s="4">
-        <v>2322</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -5883,22 +6051,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>164640</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="G9" s="4">
-        <v>3096</v>
+        <v>87600</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -5906,22 +6074,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>216960</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="G10" s="4">
-        <v>4644</v>
+        <v>109200</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -5929,22 +6097,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>280800</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="G11" s="4">
-        <v>6192</v>
+        <v>130800</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -5952,22 +6120,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>355200</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>1280</v>
       </c>
       <c r="G12" s="4">
-        <v>12384</v>
+        <v>152400</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -5975,22 +6143,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>551100</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="G13" s="4">
-        <v>18576</v>
+        <v>174000</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -5998,22 +6166,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>676800</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>1920</v>
       </c>
       <c r="G14" s="4">
-        <v>24768</v>
+        <v>195600</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -6021,22 +6189,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>815100</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>2240</v>
       </c>
       <c r="G15" s="4">
-        <v>37152</v>
+        <v>217200</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -6044,22 +6212,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>1152000</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>49536</v>
+        <v>2560</v>
+      </c>
+      <c r="G16" s="1">
+        <v>237600</v>
       </c>
     </row>
   </sheetData>
@@ -6079,7 +6247,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6116,22 +6284,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>660</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -6139,22 +6307,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1740</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>155</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -6162,22 +6330,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>4560</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>258</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -6185,22 +6353,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>8460</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>413</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -6208,22 +6376,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>13920</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>774</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -6231,22 +6399,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>21000</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>1548</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -6254,22 +6422,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>39840</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2322</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -6277,22 +6445,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>54880</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>3096</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -6300,22 +6468,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>72320</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>4644</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -6323,22 +6491,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>93600</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>6192</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -6346,22 +6514,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>118400</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>12384</v>
+        <v>50400</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -6369,22 +6537,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>183700</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>18576</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -6392,22 +6560,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>225600</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>24768</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -6415,22 +6583,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>271700</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>1120</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>37152</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -6438,22 +6606,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>384000</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>1280</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>49536</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>79200</v>
       </c>
     </row>
   </sheetData>
@@ -6473,7 +6641,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6509,22 +6677,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>660</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -6532,22 +6700,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1740</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>155</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -6555,22 +6723,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>4560</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>258</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -6578,22 +6746,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>8460</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>413</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -6601,22 +6769,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>13920</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>774</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -6624,22 +6792,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>21000</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>1548</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -6647,22 +6815,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>39840</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2322</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -6670,22 +6838,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>54880</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>3096</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -6693,22 +6861,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>72320</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>4644</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -6716,22 +6884,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>93600</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>6192</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -6739,22 +6907,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>118400</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>12384</v>
+        <v>50400</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -6762,22 +6930,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>183700</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>18576</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -6785,22 +6953,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>225600</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>24768</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -6808,22 +6976,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>271700</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>1120</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>37152</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -6831,22 +6999,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>384000</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>1280</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>49536</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>79200</v>
       </c>
     </row>
   </sheetData>
@@ -6866,7 +7034,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6902,22 +7070,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>1320</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1200</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -6925,22 +7093,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>3480</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>155</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -6948,22 +7116,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>9120</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>258</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -6971,22 +7139,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>16920</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>413</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -6994,22 +7162,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>27840</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>774</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -7017,22 +7185,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>42000</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>1548</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -7040,22 +7208,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>79680</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2322</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -7063,22 +7231,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>109760</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>3096</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -7086,22 +7254,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>144640</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>4644</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -7109,22 +7277,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>187200</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>6192</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -7132,22 +7300,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>236800</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>1280</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>12384</v>
+        <v>100800</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -7155,22 +7323,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>367400</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>18576</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -7178,22 +7346,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>451200</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>1920</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>24768</v>
+        <v>129600</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -7201,22 +7369,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>543400</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>2240</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>37152</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -7224,22 +7392,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>768000</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>2560</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>49536</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>158400</v>
       </c>
     </row>
   </sheetData>
@@ -7259,7 +7427,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7295,22 +7463,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>727</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>860</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -7318,22 +7486,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1915</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>155</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -7341,22 +7509,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>5016</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>258</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -7364,22 +7532,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>9306</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>413</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -7387,22 +7555,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>15313</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>774</v>
+        <v>8121</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -7410,22 +7578,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>23101</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>1548</v>
+        <v>16041</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -7433,22 +7601,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>43824</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2322</v>
+        <v>23961</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -7456,22 +7624,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>60369</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>3096</v>
+        <v>31881</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -7479,22 +7647,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>79552</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>4644</v>
+        <v>39800</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -7502,22 +7670,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>102961</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>6192</v>
+        <v>47721</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -7525,22 +7693,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>130241</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>12384</v>
+        <v>55641</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -7548,22 +7716,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>202071</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>18576</v>
+        <v>63561</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -7571,22 +7739,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>248161</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>24768</v>
+        <v>71480</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -7594,22 +7762,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>298870</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>1120</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>37152</v>
+        <v>79400</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -7617,22 +7785,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>422401</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>1280</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>49536</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>87120</v>
       </c>
     </row>
   </sheetData>
@@ -7652,7 +7820,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7688,22 +7856,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>727</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>860</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -7711,22 +7879,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1915</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>155</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -7734,22 +7902,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>5016</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>258</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -7757,22 +7925,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>9306</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>413</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -7780,22 +7948,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>15313</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>774</v>
+        <v>8121</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -7803,22 +7971,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>23101</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>1548</v>
+        <v>16041</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -7826,22 +7994,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>43824</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2322</v>
+        <v>23961</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -7849,22 +8017,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>60369</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>3096</v>
+        <v>31881</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -7872,22 +8040,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>79552</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>4644</v>
+        <v>39800</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -7895,22 +8063,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>102961</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>6192</v>
+        <v>47721</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -7918,22 +8086,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>130241</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>12384</v>
+        <v>55641</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -7941,22 +8109,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>202071</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>18576</v>
+        <v>63561</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -7964,22 +8132,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>248161</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>24768</v>
+        <v>71480</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -7987,22 +8155,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>298870</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>1120</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>37152</v>
+        <v>79400</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -8010,22 +8178,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>422401</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>1280</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>49536</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>87120</v>
       </c>
     </row>
   </sheetData>
@@ -8045,7 +8213,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8081,22 +8249,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>727</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>860</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -8104,22 +8272,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1915</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>155</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -8127,22 +8295,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>5016</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>258</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -8150,22 +8318,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>9306</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>413</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -8173,22 +8341,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>15313</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>774</v>
+        <v>8121</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -8196,22 +8364,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>23101</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>1548</v>
+        <v>16041</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -8219,22 +8387,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>43824</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2322</v>
+        <v>23961</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -8242,22 +8410,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>60369</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>3096</v>
+        <v>31881</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -8265,22 +8433,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>79552</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>4644</v>
+        <v>39800</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -8288,22 +8456,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>102961</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>6192</v>
+        <v>47721</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -8311,22 +8479,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>130241</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>12384</v>
+        <v>55641</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -8334,22 +8502,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>202071</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>18576</v>
+        <v>63561</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -8357,22 +8525,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>248161</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>24768</v>
+        <v>71480</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -8380,22 +8548,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>298870</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>1120</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>37152</v>
+        <v>79400</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -8403,22 +8571,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>422401</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>1280</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>49536</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>87120</v>
       </c>
     </row>
   </sheetData>
@@ -8437,8 +8605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8474,22 +8642,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>727</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>860</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -8497,22 +8665,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1915</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>155</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -8520,22 +8688,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>5016</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>258</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -8543,22 +8711,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>9306</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>413</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -8566,22 +8734,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>15313</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>774</v>
+        <v>8121</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -8589,22 +8757,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>23101</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>1548</v>
+        <v>16041</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -8612,22 +8780,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>43824</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2322</v>
+        <v>23961</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -8635,22 +8803,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>60369</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>3096</v>
+        <v>31881</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -8658,22 +8826,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>79552</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>4644</v>
+        <v>39800</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -8681,22 +8849,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>102961</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>6192</v>
+        <v>47721</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -8704,22 +8872,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>130241</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>12384</v>
+        <v>55641</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -8727,22 +8895,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>202071</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>18576</v>
+        <v>63561</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -8750,22 +8918,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>248161</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>24768</v>
+        <v>71480</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -8773,22 +8941,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>298870</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>1120</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>37152</v>
+        <v>79400</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -8796,22 +8964,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>422401</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>1280</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>49536</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>87120</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/MilitaryTechLevelUp.xlsx
+++ b/gameData/shared/MilitaryTechLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="38340" windowHeight="16360" tabRatio="968" activeTab="8"/>
+    <workbookView xWindow="860" yWindow="1580" windowWidth="38340" windowHeight="16360" tabRatio="968"/>
   </bookViews>
   <sheets>
     <sheet name="infantry_infantry" sheetId="27" r:id="rId1"/>
@@ -1137,7 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -5461,7 +5461,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8605,7 +8605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/MilitaryTechLevelUp.xlsx
+++ b/gameData/shared/MilitaryTechLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1580" windowWidth="38340" windowHeight="16360" tabRatio="968"/>
+    <workbookView xWindow="1740" yWindow="2320" windowWidth="33980" windowHeight="16140" tabRatio="968" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="infantry_infantry" sheetId="27" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="9">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -151,6 +151,14 @@
   </si>
   <si>
     <t>INT_buildTime</t>
+  </si>
+  <si>
+    <t>INT_power</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_power</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -307,7 +315,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="180">
+  <cellStyleXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -322,6 +330,82 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -508,7 +592,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="180">
+  <cellStyles count="256">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -601,6 +685,44 @@
     <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -686,6 +808,44 @@
     <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1135,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1146,7 +1306,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1168,13 +1328,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>660</v>
+        <v>6200</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1189,15 +1352,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>1200</v>
+      </c>
+      <c r="H2" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1740</v>
+        <v>16320</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1212,15 +1378,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>2400</v>
+      </c>
+      <c r="H3" s="4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4560</v>
+        <v>42760</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -1235,15 +1404,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>4800</v>
+      </c>
+      <c r="H4" s="4">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8460</v>
+        <v>79320</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -1258,15 +1430,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>9600</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>13920</v>
+        <v>130500</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
@@ -1281,15 +1456,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>14400</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>21000</v>
+        <v>196880</v>
       </c>
       <c r="C7" s="1">
         <v>40</v>
@@ -1304,15 +1482,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>28800</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>39840</v>
+        <v>373500</v>
       </c>
       <c r="C8" s="1">
         <v>80</v>
@@ -1327,15 +1508,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>57600</v>
+      </c>
+      <c r="H8" s="4">
+        <v>7470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>54880</v>
+        <v>514500</v>
       </c>
       <c r="C9" s="1">
         <v>160</v>
@@ -1350,15 +1534,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>86400</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>72320</v>
+        <v>678000</v>
       </c>
       <c r="C10" s="1">
         <v>320</v>
@@ -1373,15 +1560,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>115200</v>
+      </c>
+      <c r="H10" s="4">
+        <v>13560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>93600</v>
+        <v>877500</v>
       </c>
       <c r="C11" s="1">
         <v>480</v>
@@ -1396,15 +1586,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>144000</v>
+      </c>
+      <c r="H11" s="4">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>118400</v>
+        <v>1110000</v>
       </c>
       <c r="C12" s="1">
         <v>640</v>
@@ -1419,15 +1612,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>50400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>172800</v>
+      </c>
+      <c r="H12" s="4">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>183700</v>
+        <v>1722200</v>
       </c>
       <c r="C13" s="1">
         <v>800</v>
@@ -1442,15 +1638,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>201600</v>
+      </c>
+      <c r="H13" s="4">
+        <v>34450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>225600</v>
+        <v>2115000</v>
       </c>
       <c r="C14" s="1">
         <v>960</v>
@@ -1465,18 +1664,21 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>64800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>230400</v>
+      </c>
+      <c r="H14" s="4">
+        <v>42300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>271700</v>
+        <v>2547200</v>
       </c>
       <c r="C15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1487,19 +1689,22 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>259200</v>
+      </c>
+      <c r="H15" s="4">
+        <v>50950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>384000</v>
+        <v>3600000</v>
       </c>
       <c r="C16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1511,7 +1716,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>79200</v>
+        <v>288000</v>
+      </c>
+      <c r="H16" s="4">
+        <v>72000</v>
       </c>
     </row>
   </sheetData>
@@ -1528,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E16"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1539,7 +1747,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1561,13 +1769,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1453</v>
+        <v>13700</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1582,15 +1793,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>2840</v>
+      </c>
+      <c r="H2" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>3829</v>
+        <v>36000</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1605,15 +1819,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>5480</v>
+      </c>
+      <c r="H3" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>10032</v>
+        <v>94100</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1628,15 +1845,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>5480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>10760</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>18612</v>
+        <v>174600</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1651,15 +1871,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>8121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>21320</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>30625</v>
+        <v>287100</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1674,15 +1897,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>16041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>31881</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>46201</v>
+        <v>433200</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1697,15 +1923,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>31881</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>63561</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8670</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>87648</v>
+        <v>821800</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1720,15 +1949,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>47721</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>126921</v>
+      </c>
+      <c r="H8" s="1">
+        <v>16440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>120737</v>
+        <v>1131900</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1743,15 +1975,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>63561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>190281</v>
+      </c>
+      <c r="H9" s="1">
+        <v>22640</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>159104</v>
+        <v>1491700</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1766,15 +2001,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>79400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>253641</v>
+      </c>
+      <c r="H10" s="1">
+        <v>29840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>205921</v>
+        <v>1930600</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1789,15 +2027,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>95241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>317000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>38620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>260481</v>
+        <v>2442000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1812,15 +2053,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>111081</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>380361</v>
+      </c>
+      <c r="H12" s="1">
+        <v>48840</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>404141</v>
+        <v>3788900</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1835,15 +2079,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>126921</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>443721</v>
+      </c>
+      <c r="H13" s="1">
+        <v>75780</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>496321</v>
+        <v>4653000</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1858,21 +2105,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>142760</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>507081</v>
+      </c>
+      <c r="H14" s="1">
+        <v>93060</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>597740</v>
+        <v>5603900</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>2240</v>
+        <v>2400</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1880,22 +2130,25 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>158600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>570440</v>
+      </c>
+      <c r="H15" s="1">
+        <v>112080</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>844801</v>
+        <v>7920100</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>2560</v>
+        <v>3000</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1904,7 +2157,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>174240</v>
+        <v>633600</v>
+      </c>
+      <c r="H16" s="1">
+        <v>158410</v>
       </c>
     </row>
   </sheetData>
@@ -1921,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1932,7 +2188,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1954,13 +2210,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>792</v>
+        <v>7500</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1975,15 +2234,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>2040</v>
+      </c>
+      <c r="H2" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2088</v>
+        <v>19600</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1998,15 +2260,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>3480</v>
+      </c>
+      <c r="H3" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5472</v>
+        <v>51400</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -2021,15 +2286,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>6360</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10152</v>
+        <v>95200</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -2044,15 +2312,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>4920</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>12120</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>16704</v>
+        <v>156600</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -2067,15 +2338,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>9240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>17880</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>25200</v>
+        <v>236300</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -2090,15 +2364,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>17880</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>35160</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>47808</v>
+        <v>448200</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -2113,15 +2390,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>26520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>69720</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>65856</v>
+        <v>617400</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -2136,15 +2416,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>35160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>104280</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>86784</v>
+        <v>813600</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -2159,15 +2442,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>138840</v>
+      </c>
+      <c r="H10" s="1">
+        <v>16280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>112320</v>
+        <v>1053000</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -2182,15 +2468,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>52440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>173400</v>
+      </c>
+      <c r="H11" s="1">
+        <v>21060</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>142080</v>
+        <v>1332000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -2205,15 +2494,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>61080</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>207960</v>
+      </c>
+      <c r="H12" s="1">
+        <v>26640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>220440</v>
+        <v>2066700</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -2228,15 +2520,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>69720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>242520</v>
+      </c>
+      <c r="H13" s="1">
+        <v>41340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>270720</v>
+        <v>2538000</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -2250,16 +2545,19 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
-        <v>78360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>277080</v>
+      </c>
+      <c r="H14" s="1">
+        <v>50760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>326040</v>
+        <v>3056700</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -2268,21 +2566,24 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>87000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+        <v>311640</v>
+      </c>
+      <c r="H15" s="1">
+        <v>61140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>460800</v>
+        <v>4320000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -2291,13 +2592,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>95040</v>
+        <v>345600</v>
+      </c>
+      <c r="H16" s="1">
+        <v>86400</v>
       </c>
     </row>
   </sheetData>
@@ -2314,10 +2618,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2325,7 +2629,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2347,13 +2651,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>792</v>
+        <v>7500</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -2368,15 +2675,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>2040</v>
+      </c>
+      <c r="H2" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2088</v>
+        <v>19600</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -2391,15 +2701,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>3480</v>
+      </c>
+      <c r="H3" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5472</v>
+        <v>51400</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -2414,15 +2727,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>6360</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10152</v>
+        <v>95200</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -2437,15 +2753,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>4920</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>12120</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>16704</v>
+        <v>156600</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -2460,15 +2779,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>9240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>17880</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>25200</v>
+        <v>236300</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -2483,15 +2805,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>17880</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>35160</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>47808</v>
+        <v>448200</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -2506,15 +2831,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>26520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>69720</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>65856</v>
+        <v>617400</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -2529,15 +2857,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>35160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>104280</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>86784</v>
+        <v>813600</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -2552,15 +2883,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>138840</v>
+      </c>
+      <c r="H10" s="1">
+        <v>16280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>112320</v>
+        <v>1053000</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -2575,15 +2909,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>52440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>173400</v>
+      </c>
+      <c r="H11" s="1">
+        <v>21060</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>142080</v>
+        <v>1332000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -2598,15 +2935,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>61080</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>207960</v>
+      </c>
+      <c r="H12" s="1">
+        <v>26640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>220440</v>
+        <v>2066700</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -2621,15 +2961,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>69720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>242520</v>
+      </c>
+      <c r="H13" s="1">
+        <v>41340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>270720</v>
+        <v>2538000</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -2643,16 +2986,19 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
-        <v>78360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>277080</v>
+      </c>
+      <c r="H14" s="1">
+        <v>50760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>326040</v>
+        <v>3056700</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -2661,21 +3007,24 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>87000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+        <v>311640</v>
+      </c>
+      <c r="H15" s="1">
+        <v>61140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>460800</v>
+        <v>4320000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -2684,13 +3033,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>95040</v>
+        <v>345600</v>
+      </c>
+      <c r="H16" s="1">
+        <v>86400</v>
       </c>
     </row>
   </sheetData>
@@ -2707,10 +3059,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2718,7 +3070,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2740,13 +3092,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>792</v>
+        <v>7500</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -2761,15 +3116,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>2040</v>
+      </c>
+      <c r="H2" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2088</v>
+        <v>19600</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -2784,15 +3142,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>3480</v>
+      </c>
+      <c r="H3" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5472</v>
+        <v>51400</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -2807,15 +3168,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>6360</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10152</v>
+        <v>95200</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -2830,15 +3194,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>4920</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>12120</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>16704</v>
+        <v>156600</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -2853,15 +3220,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>9240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>17880</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>25200</v>
+        <v>236300</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -2876,15 +3246,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>17880</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>35160</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>47808</v>
+        <v>448200</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -2899,15 +3272,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>26520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>69720</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>65856</v>
+        <v>617400</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -2922,15 +3298,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>35160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>104280</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>86784</v>
+        <v>813600</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -2945,15 +3324,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>138840</v>
+      </c>
+      <c r="H10" s="1">
+        <v>16280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>112320</v>
+        <v>1053000</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -2968,15 +3350,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>52440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>173400</v>
+      </c>
+      <c r="H11" s="1">
+        <v>21060</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>142080</v>
+        <v>1332000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -2991,15 +3376,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>61080</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>207960</v>
+      </c>
+      <c r="H12" s="1">
+        <v>26640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>220440</v>
+        <v>2066700</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -3014,15 +3402,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>69720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>242520</v>
+      </c>
+      <c r="H13" s="1">
+        <v>41340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>270720</v>
+        <v>2538000</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -3036,16 +3427,19 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
-        <v>78360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>277080</v>
+      </c>
+      <c r="H14" s="1">
+        <v>50760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>326040</v>
+        <v>3056700</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -3054,21 +3448,24 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>87000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+        <v>311640</v>
+      </c>
+      <c r="H15" s="1">
+        <v>61140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>460800</v>
+        <v>4320000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -3077,13 +3474,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>95040</v>
+        <v>345600</v>
+      </c>
+      <c r="H16" s="1">
+        <v>86400</v>
       </c>
     </row>
   </sheetData>
@@ -3100,10 +3500,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G16"/>
+      <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3111,7 +3511,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3133,13 +3533,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>792</v>
+        <v>7500</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -3154,15 +3557,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>2040</v>
+      </c>
+      <c r="H2" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2088</v>
+        <v>19600</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -3177,15 +3583,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>3480</v>
+      </c>
+      <c r="H3" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5472</v>
+        <v>51400</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -3200,15 +3609,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>6360</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10152</v>
+        <v>95200</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -3223,15 +3635,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>4920</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>12120</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>16704</v>
+        <v>156600</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -3246,15 +3661,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>9240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>17880</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>25200</v>
+        <v>236300</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -3269,15 +3687,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>17880</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>35160</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>47808</v>
+        <v>448200</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -3292,15 +3713,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>26520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>69720</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>65856</v>
+        <v>617400</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -3315,15 +3739,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>35160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>104280</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>86784</v>
+        <v>813600</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -3338,15 +3765,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>138840</v>
+      </c>
+      <c r="H10" s="1">
+        <v>16280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>112320</v>
+        <v>1053000</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -3361,15 +3791,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>52440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>173400</v>
+      </c>
+      <c r="H11" s="1">
+        <v>21060</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>142080</v>
+        <v>1332000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -3384,15 +3817,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>61080</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>207960</v>
+      </c>
+      <c r="H12" s="1">
+        <v>26640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>220440</v>
+        <v>2066700</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -3407,15 +3843,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>69720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>242520</v>
+      </c>
+      <c r="H13" s="1">
+        <v>41340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>270720</v>
+        <v>2538000</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -3429,16 +3868,19 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
-        <v>78360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>277080</v>
+      </c>
+      <c r="H14" s="1">
+        <v>50760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>326040</v>
+        <v>3056700</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -3447,21 +3889,24 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>87000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+        <v>311640</v>
+      </c>
+      <c r="H15" s="1">
+        <v>61140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>460800</v>
+        <v>4320000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -3470,13 +3915,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>95040</v>
+        <v>345600</v>
+      </c>
+      <c r="H16" s="1">
+        <v>86400</v>
       </c>
     </row>
   </sheetData>
@@ -3493,10 +3941,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H2" sqref="H2:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3504,7 +3952,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3526,13 +3974,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1584</v>
+        <v>14900</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -3547,15 +3998,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>3480</v>
+      </c>
+      <c r="H2" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>4176</v>
+        <v>39200</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -3570,15 +4024,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>6360</v>
+      </c>
+      <c r="H3" s="1">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>10944</v>
+        <v>102700</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -3593,15 +4050,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>6360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>12120</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>20304</v>
+        <v>190400</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -3616,15 +4076,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>9240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>23640</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>33408</v>
+        <v>313200</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -3639,15 +4102,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>17880</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>35160</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>50400</v>
+        <v>472600</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -3662,15 +4128,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>35160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>69720</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>95616</v>
+        <v>896400</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -3685,15 +4154,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>52440</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>138840</v>
+      </c>
+      <c r="H8" s="1">
+        <v>17930</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>131712</v>
+        <v>1234800</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -3708,15 +4180,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>69720</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>207960</v>
+      </c>
+      <c r="H9" s="1">
+        <v>24700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>173568</v>
+        <v>1627200</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -3731,15 +4206,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>87000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>277080</v>
+      </c>
+      <c r="H10" s="1">
+        <v>32550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>224640</v>
+        <v>2106000</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -3754,15 +4232,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>104280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>346200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>42120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>284160</v>
+        <v>2664000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -3777,15 +4258,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>121560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>415320</v>
+      </c>
+      <c r="H12" s="1">
+        <v>53280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>440880</v>
+        <v>4133300</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -3800,15 +4284,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>138840</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>484440</v>
+      </c>
+      <c r="H13" s="1">
+        <v>82670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>541440</v>
+        <v>5076000</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -3823,15 +4310,18 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>156120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>553560</v>
+      </c>
+      <c r="H14" s="1">
+        <v>101520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>652080</v>
+        <v>6113300</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -3840,21 +4330,24 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>2240</v>
+        <v>2400</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>173400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>622680</v>
+      </c>
+      <c r="H15" s="1">
+        <v>122270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>921600</v>
+        <v>8640000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -3863,13 +4356,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>2560</v>
+        <v>3000</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>190080</v>
+        <v>691200</v>
+      </c>
+      <c r="H16" s="1">
+        <v>172800</v>
       </c>
     </row>
   </sheetData>
@@ -3886,10 +4382,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3897,7 +4393,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3919,13 +4415,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>990</v>
+        <v>9300</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -3940,15 +4439,18 @@
         <v>1</v>
       </c>
       <c r="G2" s="4">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>3000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2610</v>
+        <v>24500</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -3963,15 +4465,18 @@
         <v>2</v>
       </c>
       <c r="G3" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>4800</v>
+      </c>
+      <c r="H3" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>6840</v>
+        <v>64200</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -3986,15 +4491,18 @@
         <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>8400</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>12690</v>
+        <v>119000</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -4009,15 +4517,18 @@
         <v>10</v>
       </c>
       <c r="G5" s="4">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>15600</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>20880</v>
+        <v>195800</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4032,15 +4543,18 @@
         <v>20</v>
       </c>
       <c r="G6" s="4">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>22800</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>31500</v>
+        <v>295400</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -4055,15 +4569,18 @@
         <v>40</v>
       </c>
       <c r="G7" s="4">
-        <v>22800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>44400</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>59760</v>
+        <v>560300</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -4078,15 +4595,18 @@
         <v>80</v>
       </c>
       <c r="G8" s="4">
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>87600</v>
+      </c>
+      <c r="H8" s="1">
+        <v>11210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>82320</v>
+        <v>771800</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -4101,15 +4621,18 @@
         <v>160</v>
       </c>
       <c r="G9" s="4">
-        <v>44400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>130800</v>
+      </c>
+      <c r="H9" s="1">
+        <v>15440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>108480</v>
+        <v>1017000</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -4124,15 +4647,18 @@
         <v>320</v>
       </c>
       <c r="G10" s="4">
-        <v>55200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>174000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>140400</v>
+        <v>1316300</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -4147,15 +4673,18 @@
         <v>480</v>
       </c>
       <c r="G11" s="4">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>217200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>26330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>177600</v>
+        <v>1665000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -4170,15 +4699,18 @@
         <v>640</v>
       </c>
       <c r="G12" s="4">
-        <v>76800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>260400</v>
+      </c>
+      <c r="H12" s="1">
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>275550</v>
+        <v>2583300</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -4193,15 +4725,18 @@
         <v>800</v>
       </c>
       <c r="G13" s="4">
-        <v>87600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>303600</v>
+      </c>
+      <c r="H13" s="1">
+        <v>51670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>338400</v>
+        <v>3172500</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -4215,16 +4750,19 @@
       <c r="F14" s="1">
         <v>960</v>
       </c>
-      <c r="G14" s="4">
-        <v>98400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>346800</v>
+      </c>
+      <c r="H14" s="1">
+        <v>63450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>407550</v>
+        <v>3820800</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -4236,18 +4774,21 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="G15" s="1">
-        <v>109200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+        <v>390000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>76420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>576000</v>
+        <v>5400000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -4259,10 +4800,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="G16" s="1">
-        <v>118800</v>
+        <v>432000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>108000</v>
       </c>
     </row>
   </sheetData>
@@ -4279,10 +4823,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4290,7 +4834,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4312,13 +4856,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>990</v>
+        <v>9300</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -4333,15 +4880,18 @@
         <v>1</v>
       </c>
       <c r="G2" s="4">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>3000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2610</v>
+        <v>24500</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -4356,15 +4906,18 @@
         <v>2</v>
       </c>
       <c r="G3" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>4800</v>
+      </c>
+      <c r="H3" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>6840</v>
+        <v>64200</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -4379,15 +4932,18 @@
         <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>8400</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>12690</v>
+        <v>119000</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -4402,15 +4958,18 @@
         <v>10</v>
       </c>
       <c r="G5" s="4">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>15600</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>20880</v>
+        <v>195800</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4425,15 +4984,18 @@
         <v>20</v>
       </c>
       <c r="G6" s="4">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>22800</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>31500</v>
+        <v>295400</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -4448,15 +5010,18 @@
         <v>40</v>
       </c>
       <c r="G7" s="4">
-        <v>22800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>44400</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>59760</v>
+        <v>560300</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -4471,15 +5036,18 @@
         <v>80</v>
       </c>
       <c r="G8" s="4">
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>87600</v>
+      </c>
+      <c r="H8" s="1">
+        <v>11210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>82320</v>
+        <v>771800</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -4494,15 +5062,18 @@
         <v>160</v>
       </c>
       <c r="G9" s="4">
-        <v>44400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>130800</v>
+      </c>
+      <c r="H9" s="1">
+        <v>15440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>108480</v>
+        <v>1017000</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -4517,15 +5088,18 @@
         <v>320</v>
       </c>
       <c r="G10" s="4">
-        <v>55200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>174000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>140400</v>
+        <v>1316300</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -4540,15 +5114,18 @@
         <v>480</v>
       </c>
       <c r="G11" s="4">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>217200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>26330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>177600</v>
+        <v>1665000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -4563,15 +5140,18 @@
         <v>640</v>
       </c>
       <c r="G12" s="4">
-        <v>76800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>260400</v>
+      </c>
+      <c r="H12" s="1">
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>275550</v>
+        <v>2583300</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -4586,15 +5166,18 @@
         <v>800</v>
       </c>
       <c r="G13" s="4">
-        <v>87600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>303600</v>
+      </c>
+      <c r="H13" s="1">
+        <v>51670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>338400</v>
+        <v>3172500</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -4608,16 +5191,19 @@
       <c r="F14" s="1">
         <v>960</v>
       </c>
-      <c r="G14" s="4">
-        <v>98400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>346800</v>
+      </c>
+      <c r="H14" s="1">
+        <v>63450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>407550</v>
+        <v>3820800</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -4629,18 +5215,21 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="G15" s="1">
-        <v>109200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+        <v>390000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>76420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>576000</v>
+        <v>5400000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -4652,10 +5241,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="G16" s="1">
-        <v>118800</v>
+        <v>432000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>108000</v>
       </c>
     </row>
   </sheetData>
@@ -4672,10 +5264,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4683,7 +5275,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4705,13 +5297,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>990</v>
+        <v>9300</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -4726,15 +5321,18 @@
         <v>1</v>
       </c>
       <c r="G2" s="4">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>3000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2610</v>
+        <v>24500</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -4749,15 +5347,18 @@
         <v>2</v>
       </c>
       <c r="G3" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>4800</v>
+      </c>
+      <c r="H3" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>6840</v>
+        <v>64200</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -4772,15 +5373,18 @@
         <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>8400</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>12690</v>
+        <v>119000</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -4795,15 +5399,18 @@
         <v>10</v>
       </c>
       <c r="G5" s="4">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>15600</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>20880</v>
+        <v>195800</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4818,15 +5425,18 @@
         <v>20</v>
       </c>
       <c r="G6" s="4">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>22800</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>31500</v>
+        <v>295400</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -4841,15 +5451,18 @@
         <v>40</v>
       </c>
       <c r="G7" s="4">
-        <v>22800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>44400</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>59760</v>
+        <v>560300</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -4864,15 +5477,18 @@
         <v>80</v>
       </c>
       <c r="G8" s="4">
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>87600</v>
+      </c>
+      <c r="H8" s="1">
+        <v>11210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>82320</v>
+        <v>771800</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -4887,15 +5503,18 @@
         <v>160</v>
       </c>
       <c r="G9" s="4">
-        <v>44400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>130800</v>
+      </c>
+      <c r="H9" s="1">
+        <v>15440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>108480</v>
+        <v>1017000</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -4910,15 +5529,18 @@
         <v>320</v>
       </c>
       <c r="G10" s="4">
-        <v>55200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>174000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>140400</v>
+        <v>1316300</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -4933,15 +5555,18 @@
         <v>480</v>
       </c>
       <c r="G11" s="4">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>217200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>26330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>177600</v>
+        <v>1665000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -4956,15 +5581,18 @@
         <v>640</v>
       </c>
       <c r="G12" s="4">
-        <v>76800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>260400</v>
+      </c>
+      <c r="H12" s="1">
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>275550</v>
+        <v>2583300</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -4979,15 +5607,18 @@
         <v>800</v>
       </c>
       <c r="G13" s="4">
-        <v>87600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>303600</v>
+      </c>
+      <c r="H13" s="1">
+        <v>51670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>338400</v>
+        <v>3172500</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -5001,16 +5632,19 @@
       <c r="F14" s="1">
         <v>960</v>
       </c>
-      <c r="G14" s="4">
-        <v>98400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>346800</v>
+      </c>
+      <c r="H14" s="1">
+        <v>63450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>407550</v>
+        <v>3820800</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -5022,18 +5656,21 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="G15" s="1">
-        <v>109200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+        <v>390000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>76420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>576000</v>
+        <v>5400000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -5045,10 +5682,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="G16" s="1">
-        <v>118800</v>
+        <v>432000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>108000</v>
       </c>
     </row>
   </sheetData>
@@ -5065,10 +5705,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5076,7 +5716,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5098,13 +5738,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>990</v>
+        <v>9300</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -5119,15 +5762,18 @@
         <v>1</v>
       </c>
       <c r="G2" s="4">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>3000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2610</v>
+        <v>24500</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -5142,15 +5788,18 @@
         <v>2</v>
       </c>
       <c r="G3" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>4800</v>
+      </c>
+      <c r="H3" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>6840</v>
+        <v>64200</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -5165,15 +5814,18 @@
         <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>8400</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>12690</v>
+        <v>119000</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -5188,15 +5840,18 @@
         <v>10</v>
       </c>
       <c r="G5" s="4">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>15600</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>20880</v>
+        <v>195800</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -5211,15 +5866,18 @@
         <v>20</v>
       </c>
       <c r="G6" s="4">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>22800</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>31500</v>
+        <v>295400</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -5234,15 +5892,18 @@
         <v>40</v>
       </c>
       <c r="G7" s="4">
-        <v>22800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>44400</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>59760</v>
+        <v>560300</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -5257,15 +5918,18 @@
         <v>80</v>
       </c>
       <c r="G8" s="4">
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>87600</v>
+      </c>
+      <c r="H8" s="1">
+        <v>11210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>82320</v>
+        <v>771800</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -5280,15 +5944,18 @@
         <v>160</v>
       </c>
       <c r="G9" s="4">
-        <v>44400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>130800</v>
+      </c>
+      <c r="H9" s="1">
+        <v>15440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>108480</v>
+        <v>1017000</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -5303,15 +5970,18 @@
         <v>320</v>
       </c>
       <c r="G10" s="4">
-        <v>55200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>174000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>140400</v>
+        <v>1316300</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -5326,15 +5996,18 @@
         <v>480</v>
       </c>
       <c r="G11" s="4">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>217200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>26330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>177600</v>
+        <v>1665000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -5349,15 +6022,18 @@
         <v>640</v>
       </c>
       <c r="G12" s="4">
-        <v>76800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>260400</v>
+      </c>
+      <c r="H12" s="1">
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>275550</v>
+        <v>2583300</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -5372,15 +6048,18 @@
         <v>800</v>
       </c>
       <c r="G13" s="4">
-        <v>87600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>303600</v>
+      </c>
+      <c r="H13" s="1">
+        <v>51670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>338400</v>
+        <v>3172500</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -5394,16 +6073,19 @@
       <c r="F14" s="1">
         <v>960</v>
       </c>
-      <c r="G14" s="4">
-        <v>98400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>346800</v>
+      </c>
+      <c r="H14" s="1">
+        <v>63450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>407550</v>
+        <v>3820800</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -5415,18 +6097,21 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="G15" s="1">
-        <v>109200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+        <v>390000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>76420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>576000</v>
+        <v>5400000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -5438,10 +6123,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="G16" s="1">
-        <v>118800</v>
+        <v>432000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>108000</v>
       </c>
     </row>
   </sheetData>
@@ -5458,10 +6146,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5469,7 +6157,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5491,13 +6179,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>660</v>
+        <v>6200</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -5512,15 +6203,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>1200</v>
+      </c>
+      <c r="H2" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1740</v>
+        <v>16320</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -5535,15 +6229,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>2400</v>
+      </c>
+      <c r="H3" s="4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4560</v>
+        <v>42760</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -5558,15 +6255,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>4800</v>
+      </c>
+      <c r="H4" s="4">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8460</v>
+        <v>79320</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -5581,15 +6281,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>9600</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>13920</v>
+        <v>130500</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
@@ -5604,15 +6307,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>14400</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>21000</v>
+        <v>196880</v>
       </c>
       <c r="C7" s="1">
         <v>40</v>
@@ -5627,15 +6333,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>28800</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>39840</v>
+        <v>373500</v>
       </c>
       <c r="C8" s="1">
         <v>80</v>
@@ -5650,15 +6359,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>57600</v>
+      </c>
+      <c r="H8" s="4">
+        <v>7470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>54880</v>
+        <v>514500</v>
       </c>
       <c r="C9" s="1">
         <v>160</v>
@@ -5673,15 +6385,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>86400</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>72320</v>
+        <v>678000</v>
       </c>
       <c r="C10" s="1">
         <v>320</v>
@@ -5696,15 +6411,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>115200</v>
+      </c>
+      <c r="H10" s="4">
+        <v>13560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>93600</v>
+        <v>877500</v>
       </c>
       <c r="C11" s="1">
         <v>480</v>
@@ -5719,15 +6437,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>144000</v>
+      </c>
+      <c r="H11" s="4">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>118400</v>
+        <v>1110000</v>
       </c>
       <c r="C12" s="1">
         <v>640</v>
@@ -5742,15 +6463,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>50400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>172800</v>
+      </c>
+      <c r="H12" s="4">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>183700</v>
+        <v>1722200</v>
       </c>
       <c r="C13" s="1">
         <v>800</v>
@@ -5765,15 +6489,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>201600</v>
+      </c>
+      <c r="H13" s="4">
+        <v>34450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>225600</v>
+        <v>2115000</v>
       </c>
       <c r="C14" s="1">
         <v>960</v>
@@ -5788,18 +6515,21 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>64800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>230400</v>
+      </c>
+      <c r="H14" s="4">
+        <v>42300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>271700</v>
+        <v>2547200</v>
       </c>
       <c r="C15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -5810,19 +6540,22 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>259200</v>
+      </c>
+      <c r="H15" s="4">
+        <v>50950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>384000</v>
+        <v>3600000</v>
       </c>
       <c r="C16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -5834,7 +6567,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>79200</v>
+        <v>288000</v>
+      </c>
+      <c r="H16" s="4">
+        <v>72000</v>
       </c>
     </row>
   </sheetData>
@@ -5851,10 +6587,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="L20" sqref="L19:L20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5862,7 +6598,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5884,13 +6620,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1980</v>
+        <v>18600</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -5905,15 +6644,18 @@
         <v>2</v>
       </c>
       <c r="G2" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>4800</v>
+      </c>
+      <c r="H2" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>5220</v>
+        <v>49000</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -5928,15 +6670,18 @@
         <v>4</v>
       </c>
       <c r="G3" s="4">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>8400</v>
+      </c>
+      <c r="H3" s="1">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>13680</v>
+        <v>128300</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -5951,15 +6696,18 @@
         <v>10</v>
       </c>
       <c r="G4" s="4">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>15600</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>25380</v>
+        <v>238000</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -5974,15 +6722,18 @@
         <v>20</v>
       </c>
       <c r="G5" s="4">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>30000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>41760</v>
+        <v>391500</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -5997,15 +6748,18 @@
         <v>40</v>
       </c>
       <c r="G6" s="4">
-        <v>22800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>44400</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7830</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>63000</v>
+        <v>590700</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -6020,15 +6774,18 @@
         <v>80</v>
       </c>
       <c r="G7" s="4">
-        <v>44400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>87600</v>
+      </c>
+      <c r="H7" s="1">
+        <v>11820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>119520</v>
+        <v>1120500</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -6043,15 +6800,18 @@
         <v>160</v>
       </c>
       <c r="G8" s="4">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>174000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>22410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>164640</v>
+        <v>1543500</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -6066,15 +6826,18 @@
         <v>320</v>
       </c>
       <c r="G9" s="4">
-        <v>87600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>260400</v>
+      </c>
+      <c r="H9" s="1">
+        <v>30870</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>216960</v>
+        <v>2034000</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -6089,15 +6852,18 @@
         <v>640</v>
       </c>
       <c r="G10" s="4">
-        <v>109200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>346800</v>
+      </c>
+      <c r="H10" s="1">
+        <v>40680</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>280800</v>
+        <v>2632500</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -6112,15 +6878,18 @@
         <v>960</v>
       </c>
       <c r="G11" s="4">
-        <v>130800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>433200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>52650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>355200</v>
+        <v>3330000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -6135,15 +6904,18 @@
         <v>1280</v>
       </c>
       <c r="G12" s="4">
-        <v>152400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>519600</v>
+      </c>
+      <c r="H12" s="1">
+        <v>66600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>551100</v>
+        <v>5166600</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -6158,15 +6930,18 @@
         <v>1600</v>
       </c>
       <c r="G13" s="4">
-        <v>174000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>606000</v>
+      </c>
+      <c r="H13" s="1">
+        <v>103340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>676800</v>
+        <v>6345000</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -6181,15 +6956,18 @@
         <v>1920</v>
       </c>
       <c r="G14" s="4">
-        <v>195600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>692400</v>
+      </c>
+      <c r="H14" s="1">
+        <v>126900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>815100</v>
+        <v>7641600</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -6201,18 +6979,21 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>2240</v>
-      </c>
-      <c r="G15" s="4">
-        <v>217200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+        <v>2400</v>
+      </c>
+      <c r="G15" s="1">
+        <v>778800</v>
+      </c>
+      <c r="H15" s="1">
+        <v>152840</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1152000</v>
+        <v>10800000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -6224,10 +7005,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>2560</v>
+        <v>3000</v>
       </c>
       <c r="G16" s="1">
-        <v>237600</v>
+        <v>864000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>216000</v>
       </c>
     </row>
   </sheetData>
@@ -6247,7 +7031,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6277,14 +7061,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>660</v>
+        <v>6200</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -6299,7 +7085,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>600</v>
+        <v>1200</v>
+      </c>
+      <c r="H2" s="4">
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -6307,7 +7096,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1740</v>
+        <v>16320</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -6322,7 +7111,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1200</v>
+        <v>2400</v>
+      </c>
+      <c r="H3" s="4">
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -6330,7 +7122,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4560</v>
+        <v>42760</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -6345,7 +7137,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>2400</v>
+        <v>4800</v>
+      </c>
+      <c r="H4" s="4">
+        <v>860</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -6353,7 +7148,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8460</v>
+        <v>79320</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -6368,7 +7163,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>3600</v>
+        <v>9600</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1590</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -6376,7 +7174,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>13920</v>
+        <v>130500</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
@@ -6391,7 +7189,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>7200</v>
+        <v>14400</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2610</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -6399,7 +7200,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>21000</v>
+        <v>196880</v>
       </c>
       <c r="C7" s="1">
         <v>40</v>
@@ -6414,7 +7215,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>14400</v>
+        <v>28800</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3940</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -6422,7 +7226,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>39840</v>
+        <v>373500</v>
       </c>
       <c r="C8" s="1">
         <v>80</v>
@@ -6437,7 +7241,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>21600</v>
+        <v>57600</v>
+      </c>
+      <c r="H8" s="4">
+        <v>7470</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -6445,7 +7252,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>54880</v>
+        <v>514500</v>
       </c>
       <c r="C9" s="1">
         <v>160</v>
@@ -6460,7 +7267,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>28800</v>
+        <v>86400</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10290</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -6468,7 +7278,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>72320</v>
+        <v>678000</v>
       </c>
       <c r="C10" s="1">
         <v>320</v>
@@ -6483,7 +7293,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>36000</v>
+        <v>115200</v>
+      </c>
+      <c r="H10" s="4">
+        <v>13560</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -6491,7 +7304,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>93600</v>
+        <v>877500</v>
       </c>
       <c r="C11" s="1">
         <v>480</v>
@@ -6506,7 +7319,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>43200</v>
+        <v>144000</v>
+      </c>
+      <c r="H11" s="4">
+        <v>17550</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -6514,7 +7330,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>118400</v>
+        <v>1110000</v>
       </c>
       <c r="C12" s="1">
         <v>640</v>
@@ -6529,7 +7345,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>50400</v>
+        <v>172800</v>
+      </c>
+      <c r="H12" s="4">
+        <v>22200</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -6537,7 +7356,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>183700</v>
+        <v>1722200</v>
       </c>
       <c r="C13" s="1">
         <v>800</v>
@@ -6552,7 +7371,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>57600</v>
+        <v>201600</v>
+      </c>
+      <c r="H13" s="4">
+        <v>34450</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -6560,7 +7382,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>225600</v>
+        <v>2115000</v>
       </c>
       <c r="C14" s="1">
         <v>960</v>
@@ -6575,7 +7397,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>64800</v>
+        <v>230400</v>
+      </c>
+      <c r="H14" s="4">
+        <v>42300</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -6583,10 +7408,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>271700</v>
+        <v>2547200</v>
       </c>
       <c r="C15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -6597,8 +7422,11 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>72000</v>
+      <c r="G15" s="1">
+        <v>259200</v>
+      </c>
+      <c r="H15" s="4">
+        <v>50950</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -6606,10 +7434,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>384000</v>
+        <v>3600000</v>
       </c>
       <c r="C16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -6621,7 +7449,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>79200</v>
+        <v>288000</v>
+      </c>
+      <c r="H16" s="4">
+        <v>72000</v>
       </c>
     </row>
   </sheetData>
@@ -6638,10 +7469,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6649,7 +7480,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6671,13 +7502,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>660</v>
+        <v>6200</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -6692,15 +7526,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>1200</v>
+      </c>
+      <c r="H2" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1740</v>
+        <v>16320</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -6715,15 +7552,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>2400</v>
+      </c>
+      <c r="H3" s="4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4560</v>
+        <v>42760</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -6738,15 +7578,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>4800</v>
+      </c>
+      <c r="H4" s="4">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8460</v>
+        <v>79320</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -6761,15 +7604,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>9600</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>13920</v>
+        <v>130500</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
@@ -6784,15 +7630,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>14400</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>21000</v>
+        <v>196880</v>
       </c>
       <c r="C7" s="1">
         <v>40</v>
@@ -6807,15 +7656,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>28800</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>39840</v>
+        <v>373500</v>
       </c>
       <c r="C8" s="1">
         <v>80</v>
@@ -6830,15 +7682,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>57600</v>
+      </c>
+      <c r="H8" s="4">
+        <v>7470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>54880</v>
+        <v>514500</v>
       </c>
       <c r="C9" s="1">
         <v>160</v>
@@ -6853,15 +7708,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>86400</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>72320</v>
+        <v>678000</v>
       </c>
       <c r="C10" s="1">
         <v>320</v>
@@ -6876,15 +7734,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>115200</v>
+      </c>
+      <c r="H10" s="4">
+        <v>13560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>93600</v>
+        <v>877500</v>
       </c>
       <c r="C11" s="1">
         <v>480</v>
@@ -6899,15 +7760,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>144000</v>
+      </c>
+      <c r="H11" s="4">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>118400</v>
+        <v>1110000</v>
       </c>
       <c r="C12" s="1">
         <v>640</v>
@@ -6922,15 +7786,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>50400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>172800</v>
+      </c>
+      <c r="H12" s="4">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>183700</v>
+        <v>1722200</v>
       </c>
       <c r="C13" s="1">
         <v>800</v>
@@ -6945,15 +7812,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>201600</v>
+      </c>
+      <c r="H13" s="4">
+        <v>34450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>225600</v>
+        <v>2115000</v>
       </c>
       <c r="C14" s="1">
         <v>960</v>
@@ -6968,18 +7838,21 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>64800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>230400</v>
+      </c>
+      <c r="H14" s="4">
+        <v>42300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>271700</v>
+        <v>2547200</v>
       </c>
       <c r="C15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -6990,19 +7863,22 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>259200</v>
+      </c>
+      <c r="H15" s="4">
+        <v>50950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>384000</v>
+        <v>3600000</v>
       </c>
       <c r="C16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -7014,7 +7890,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>79200</v>
+        <v>288000</v>
+      </c>
+      <c r="H16" s="4">
+        <v>72000</v>
       </c>
     </row>
   </sheetData>
@@ -7031,10 +7910,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7042,7 +7921,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7064,13 +7943,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1320</v>
+        <v>12400</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -7085,15 +7967,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>2400</v>
+      </c>
+      <c r="H2" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>3480</v>
+        <v>32640</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -7108,15 +7993,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>4800</v>
+      </c>
+      <c r="H3" s="1">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>9120</v>
+        <v>85520</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
@@ -7131,15 +8019,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>9600</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>16920</v>
+        <v>158640</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
@@ -7154,15 +8045,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>19200</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>27840</v>
+        <v>261000</v>
       </c>
       <c r="C6" s="1">
         <v>40</v>
@@ -7177,15 +8071,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>28800</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>42000</v>
+        <v>393760</v>
       </c>
       <c r="C7" s="1">
         <v>80</v>
@@ -7200,15 +8097,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>57600</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>79680</v>
+        <v>747000</v>
       </c>
       <c r="C8" s="1">
         <v>160</v>
@@ -7223,15 +8123,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>115200</v>
+      </c>
+      <c r="H8" s="1">
+        <v>14940</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>109760</v>
+        <v>1029000</v>
       </c>
       <c r="C9" s="1">
         <v>320</v>
@@ -7246,15 +8149,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>172800</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>144640</v>
+        <v>1356000</v>
       </c>
       <c r="C10" s="1">
         <v>640</v>
@@ -7269,15 +8175,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>230400</v>
+      </c>
+      <c r="H10" s="1">
+        <v>27120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>187200</v>
+        <v>1755000</v>
       </c>
       <c r="C11" s="1">
         <v>960</v>
@@ -7292,15 +8201,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>86400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>288000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>35100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>236800</v>
+        <v>2220000</v>
       </c>
       <c r="C12" s="1">
         <v>1280</v>
@@ -7315,15 +8227,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>100800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>345600</v>
+      </c>
+      <c r="H12" s="1">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>367400</v>
+        <v>3444400</v>
       </c>
       <c r="C13" s="1">
         <v>1600</v>
@@ -7338,15 +8253,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>115200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>403200</v>
+      </c>
+      <c r="H13" s="1">
+        <v>68890</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>451200</v>
+        <v>4230000</v>
       </c>
       <c r="C14" s="1">
         <v>1920</v>
@@ -7361,18 +8279,21 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>129600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>460800</v>
+      </c>
+      <c r="H14" s="1">
+        <v>84600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>543400</v>
+        <v>5094400</v>
       </c>
       <c r="C15" s="1">
-        <v>2240</v>
+        <v>2400</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -7383,19 +8304,22 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>518400</v>
+      </c>
+      <c r="H15" s="1">
+        <v>101890</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>768000</v>
+        <v>7200000</v>
       </c>
       <c r="C16" s="1">
-        <v>2560</v>
+        <v>3000</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -7407,7 +8331,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>158400</v>
+        <v>576000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>144000</v>
       </c>
     </row>
   </sheetData>
@@ -7424,10 +8351,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7435,7 +8362,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7457,13 +8384,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>727</v>
+        <v>6900</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -7478,15 +8408,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>1520</v>
+      </c>
+      <c r="H2" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1915</v>
+        <v>18000</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -7501,15 +8434,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>2840</v>
+      </c>
+      <c r="H3" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5016</v>
+        <v>47100</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -7524,15 +8460,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>5480</v>
+      </c>
+      <c r="H4" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9306</v>
+        <v>87300</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -7547,15 +8486,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>4161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>10760</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>15313</v>
+        <v>143600</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -7570,15 +8512,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>8121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>16041</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>23101</v>
+        <v>216600</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -7593,15 +8538,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>16041</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>31881</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>43824</v>
+        <v>410900</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -7616,15 +8564,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>23961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>63561</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>60369</v>
+        <v>566000</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -7639,15 +8590,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>31881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>95241</v>
+      </c>
+      <c r="H9" s="1">
+        <v>11320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>79552</v>
+        <v>745900</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -7662,15 +8616,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>39800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>126921</v>
+      </c>
+      <c r="H10" s="1">
+        <v>14920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>102961</v>
+        <v>965300</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -7685,15 +8642,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>47721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>158600</v>
+      </c>
+      <c r="H11" s="1">
+        <v>19310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>130241</v>
+        <v>1221000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -7708,15 +8668,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>55641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>190281</v>
+      </c>
+      <c r="H12" s="1">
+        <v>24420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>202071</v>
+        <v>1894500</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -7731,15 +8694,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>63561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>221961</v>
+      </c>
+      <c r="H13" s="1">
+        <v>37890</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>248161</v>
+        <v>2326500</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -7754,21 +8720,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>71480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>253641</v>
+      </c>
+      <c r="H14" s="1">
+        <v>46530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>298870</v>
+        <v>2802000</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -7776,22 +8745,25 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>79400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>285320</v>
+      </c>
+      <c r="H15" s="1">
+        <v>56040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>422401</v>
+        <v>3960100</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -7800,7 +8772,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>87120</v>
+        <v>316800</v>
+      </c>
+      <c r="H16" s="1">
+        <v>79210</v>
       </c>
     </row>
   </sheetData>
@@ -7817,10 +8792,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7828,7 +8803,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7850,13 +8825,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>727</v>
+        <v>6900</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -7871,15 +8849,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>1520</v>
+      </c>
+      <c r="H2" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1915</v>
+        <v>18000</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -7894,15 +8875,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>2840</v>
+      </c>
+      <c r="H3" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5016</v>
+        <v>47100</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -7917,15 +8901,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>5480</v>
+      </c>
+      <c r="H4" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9306</v>
+        <v>87300</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -7940,15 +8927,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>4161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>10760</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>15313</v>
+        <v>143600</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -7963,15 +8953,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>8121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>16041</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>23101</v>
+        <v>216600</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -7986,15 +8979,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>16041</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>31881</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>43824</v>
+        <v>410900</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -8009,15 +9005,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>23961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>63561</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>60369</v>
+        <v>566000</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -8032,15 +9031,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>31881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>95241</v>
+      </c>
+      <c r="H9" s="1">
+        <v>11320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>79552</v>
+        <v>745900</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -8055,15 +9057,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>39800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>126921</v>
+      </c>
+      <c r="H10" s="1">
+        <v>14920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>102961</v>
+        <v>965300</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -8078,15 +9083,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>47721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>158600</v>
+      </c>
+      <c r="H11" s="1">
+        <v>19310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>130241</v>
+        <v>1221000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -8101,15 +9109,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>55641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>190281</v>
+      </c>
+      <c r="H12" s="1">
+        <v>24420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>202071</v>
+        <v>1894500</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -8124,15 +9135,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>63561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>221961</v>
+      </c>
+      <c r="H13" s="1">
+        <v>37890</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>248161</v>
+        <v>2326500</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -8147,21 +9161,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>71480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>253641</v>
+      </c>
+      <c r="H14" s="1">
+        <v>46530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>298870</v>
+        <v>2802000</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -8169,22 +9186,25 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>79400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>285320</v>
+      </c>
+      <c r="H15" s="1">
+        <v>56040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>422401</v>
+        <v>3960100</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -8193,7 +9213,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>87120</v>
+        <v>316800</v>
+      </c>
+      <c r="H16" s="1">
+        <v>79210</v>
       </c>
     </row>
   </sheetData>
@@ -8210,10 +9233,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8221,7 +9244,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8243,13 +9266,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>727</v>
+        <v>6900</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -8264,15 +9290,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>1520</v>
+      </c>
+      <c r="H2" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1915</v>
+        <v>18000</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -8287,15 +9316,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>2840</v>
+      </c>
+      <c r="H3" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5016</v>
+        <v>47100</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -8310,15 +9342,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>5480</v>
+      </c>
+      <c r="H4" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9306</v>
+        <v>87300</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -8333,15 +9368,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>4161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>10760</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>15313</v>
+        <v>143600</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -8356,15 +9394,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>8121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>16041</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>23101</v>
+        <v>216600</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -8379,15 +9420,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>16041</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>31881</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>43824</v>
+        <v>410900</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -8402,15 +9446,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>23961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>63561</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>60369</v>
+        <v>566000</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -8425,15 +9472,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>31881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>95241</v>
+      </c>
+      <c r="H9" s="1">
+        <v>11320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>79552</v>
+        <v>745900</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -8448,15 +9498,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>39800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>126921</v>
+      </c>
+      <c r="H10" s="1">
+        <v>14920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>102961</v>
+        <v>965300</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -8471,15 +9524,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>47721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>158600</v>
+      </c>
+      <c r="H11" s="1">
+        <v>19310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>130241</v>
+        <v>1221000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -8494,15 +9550,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>55641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>190281</v>
+      </c>
+      <c r="H12" s="1">
+        <v>24420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>202071</v>
+        <v>1894500</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -8517,15 +9576,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>63561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>221961</v>
+      </c>
+      <c r="H13" s="1">
+        <v>37890</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>248161</v>
+        <v>2326500</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -8540,21 +9602,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>71480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>253641</v>
+      </c>
+      <c r="H14" s="1">
+        <v>46530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>298870</v>
+        <v>2802000</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -8562,22 +9627,25 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>79400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>285320</v>
+      </c>
+      <c r="H15" s="1">
+        <v>56040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>422401</v>
+        <v>3960100</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -8586,7 +9654,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>87120</v>
+        <v>316800</v>
+      </c>
+      <c r="H16" s="1">
+        <v>79210</v>
       </c>
     </row>
   </sheetData>
@@ -8603,10 +9674,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8614,7 +9685,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8636,13 +9707,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>727</v>
+        <v>6900</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -8657,15 +9731,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+        <v>1520</v>
+      </c>
+      <c r="H2" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1915</v>
+        <v>18000</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -8680,15 +9757,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>2840</v>
+      </c>
+      <c r="H3" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5016</v>
+        <v>47100</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -8703,15 +9783,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>5480</v>
+      </c>
+      <c r="H4" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9306</v>
+        <v>87300</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -8726,15 +9809,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>4161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>10760</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>15313</v>
+        <v>143600</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -8749,15 +9835,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>8121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>16041</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>23101</v>
+        <v>216600</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -8772,15 +9861,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>16041</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>31881</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>43824</v>
+        <v>410900</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -8795,15 +9887,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>23961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+        <v>63561</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>60369</v>
+        <v>566000</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -8818,15 +9913,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>31881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+        <v>95241</v>
+      </c>
+      <c r="H9" s="1">
+        <v>11320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>79552</v>
+        <v>745900</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -8841,15 +9939,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>39800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>126921</v>
+      </c>
+      <c r="H10" s="1">
+        <v>14920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>102961</v>
+        <v>965300</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -8864,15 +9965,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>47721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>158600</v>
+      </c>
+      <c r="H11" s="1">
+        <v>19310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>130241</v>
+        <v>1221000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -8887,15 +9991,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>55641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+        <v>190281</v>
+      </c>
+      <c r="H12" s="1">
+        <v>24420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>202071</v>
+        <v>1894500</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -8910,15 +10017,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>63561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+        <v>221961</v>
+      </c>
+      <c r="H13" s="1">
+        <v>37890</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>248161</v>
+        <v>2326500</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -8933,21 +10043,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>71480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+        <v>253641</v>
+      </c>
+      <c r="H14" s="1">
+        <v>46530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>298870</v>
+        <v>2802000</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -8955,22 +10068,25 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>79400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>285320</v>
+      </c>
+      <c r="H15" s="1">
+        <v>56040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>422401</v>
+        <v>3960100</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1280</v>
+        <v>1500</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -8979,7 +10095,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>87120</v>
+        <v>316800</v>
+      </c>
+      <c r="H16" s="1">
+        <v>79210</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/MilitaryTechLevelUp.xlsx
+++ b/gameData/shared/MilitaryTechLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="2320" windowWidth="33980" windowHeight="16140" tabRatio="968" activeTab="4"/>
+    <workbookView xWindow="1740" yWindow="2320" windowWidth="33980" windowHeight="16140" tabRatio="968" firstSheet="3" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="infantry_infantry" sheetId="27" r:id="rId1"/>
@@ -315,7 +315,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="256">
+  <cellStyleXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -330,6 +330,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -592,7 +602,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="256">
+  <cellStyles count="266">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -723,6 +733,11 @@
     <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -846,6 +861,11 @@
     <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1298,7 +1318,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1678,7 +1698,7 @@
         <v>2547200</v>
       </c>
       <c r="C15" s="1">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1704,7 +1724,7 @@
         <v>3600000</v>
       </c>
       <c r="C16" s="1">
-        <v>1500</v>
+        <v>1280</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1739,7 +1759,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1809,7 +1829,7 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>4</v>
       </c>
       <c r="E3" s="1">
@@ -1835,7 +1855,7 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>10</v>
       </c>
       <c r="E4" s="1">
@@ -1861,7 +1881,7 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>20</v>
       </c>
       <c r="E5" s="1">
@@ -1887,7 +1907,7 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>40</v>
       </c>
       <c r="E6" s="1">
@@ -1913,7 +1933,7 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>80</v>
       </c>
       <c r="E7" s="1">
@@ -1939,7 +1959,7 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>160</v>
       </c>
       <c r="E8" s="1">
@@ -1965,7 +1985,7 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>320</v>
       </c>
       <c r="E9" s="1">
@@ -1991,7 +2011,7 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>640</v>
       </c>
       <c r="E10" s="1">
@@ -2017,7 +2037,7 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>960</v>
       </c>
       <c r="E11" s="1">
@@ -2043,7 +2063,7 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>1280</v>
       </c>
       <c r="E12" s="1">
@@ -2069,7 +2089,7 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>1600</v>
       </c>
       <c r="E13" s="1">
@@ -2095,7 +2115,7 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>1920</v>
       </c>
       <c r="E14" s="1">
@@ -2121,8 +2141,8 @@
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="1">
-        <v>2400</v>
+      <c r="D15" s="4">
+        <v>2240</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -2147,8 +2167,8 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="1">
-        <v>3000</v>
+      <c r="D16" s="4">
+        <v>2560</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -2180,7 +2200,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H19"/>
+      <selection activeCell="E2" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2253,7 +2273,7 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
       <c r="F3" s="1">
@@ -2279,7 +2299,7 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>5</v>
       </c>
       <c r="F4" s="1">
@@ -2305,7 +2325,7 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>10</v>
       </c>
       <c r="F5" s="1">
@@ -2331,7 +2351,7 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>20</v>
       </c>
       <c r="F6" s="1">
@@ -2357,7 +2377,7 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>40</v>
       </c>
       <c r="F7" s="1">
@@ -2383,7 +2403,7 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>80</v>
       </c>
       <c r="F8" s="1">
@@ -2409,7 +2429,7 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>160</v>
       </c>
       <c r="F9" s="1">
@@ -2435,7 +2455,7 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>320</v>
       </c>
       <c r="F10" s="1">
@@ -2461,7 +2481,7 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>480</v>
       </c>
       <c r="F11" s="1">
@@ -2487,7 +2507,7 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>640</v>
       </c>
       <c r="F12" s="1">
@@ -2513,7 +2533,7 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>800</v>
       </c>
       <c r="F13" s="1">
@@ -2539,7 +2559,7 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>960</v>
       </c>
       <c r="F14" s="1">
@@ -2565,8 +2585,8 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="1">
-        <v>1200</v>
+      <c r="E15" s="4">
+        <v>1120</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2591,8 +2611,8 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="1">
-        <v>1500</v>
+      <c r="E16" s="4">
+        <v>1280</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2621,7 +2641,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H19"/>
+      <selection activeCell="E2" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2694,7 +2714,7 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
       <c r="F3" s="1">
@@ -2720,7 +2740,7 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>5</v>
       </c>
       <c r="F4" s="1">
@@ -2746,7 +2766,7 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>10</v>
       </c>
       <c r="F5" s="1">
@@ -2772,7 +2792,7 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>20</v>
       </c>
       <c r="F6" s="1">
@@ -2798,7 +2818,7 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>40</v>
       </c>
       <c r="F7" s="1">
@@ -2824,7 +2844,7 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>80</v>
       </c>
       <c r="F8" s="1">
@@ -2850,7 +2870,7 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>160</v>
       </c>
       <c r="F9" s="1">
@@ -2876,7 +2896,7 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>320</v>
       </c>
       <c r="F10" s="1">
@@ -2902,7 +2922,7 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>480</v>
       </c>
       <c r="F11" s="1">
@@ -2928,7 +2948,7 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>640</v>
       </c>
       <c r="F12" s="1">
@@ -2954,7 +2974,7 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>800</v>
       </c>
       <c r="F13" s="1">
@@ -2980,7 +3000,7 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>960</v>
       </c>
       <c r="F14" s="1">
@@ -3006,8 +3026,8 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="1">
-        <v>1200</v>
+      <c r="E15" s="4">
+        <v>1120</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3032,8 +3052,8 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="1">
-        <v>1500</v>
+      <c r="E16" s="4">
+        <v>1280</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3062,7 +3082,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H19"/>
+      <selection activeCell="E2" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3135,7 +3155,7 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
       <c r="F3" s="1">
@@ -3161,7 +3181,7 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>5</v>
       </c>
       <c r="F4" s="1">
@@ -3187,7 +3207,7 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>10</v>
       </c>
       <c r="F5" s="1">
@@ -3213,7 +3233,7 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>20</v>
       </c>
       <c r="F6" s="1">
@@ -3239,7 +3259,7 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>40</v>
       </c>
       <c r="F7" s="1">
@@ -3265,7 +3285,7 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>80</v>
       </c>
       <c r="F8" s="1">
@@ -3291,7 +3311,7 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>160</v>
       </c>
       <c r="F9" s="1">
@@ -3317,7 +3337,7 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>320</v>
       </c>
       <c r="F10" s="1">
@@ -3343,7 +3363,7 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>480</v>
       </c>
       <c r="F11" s="1">
@@ -3369,7 +3389,7 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>640</v>
       </c>
       <c r="F12" s="1">
@@ -3395,7 +3415,7 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>800</v>
       </c>
       <c r="F13" s="1">
@@ -3421,7 +3441,7 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>960</v>
       </c>
       <c r="F14" s="1">
@@ -3447,8 +3467,8 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="1">
-        <v>1200</v>
+      <c r="E15" s="4">
+        <v>1120</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3473,8 +3493,8 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="1">
-        <v>1500</v>
+      <c r="E16" s="4">
+        <v>1280</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3503,7 +3523,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H19"/>
+      <selection activeCell="E2" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3576,7 +3596,7 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
       <c r="F3" s="1">
@@ -3602,7 +3622,7 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>5</v>
       </c>
       <c r="F4" s="1">
@@ -3628,7 +3648,7 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>10</v>
       </c>
       <c r="F5" s="1">
@@ -3654,7 +3674,7 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>20</v>
       </c>
       <c r="F6" s="1">
@@ -3680,7 +3700,7 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>40</v>
       </c>
       <c r="F7" s="1">
@@ -3706,7 +3726,7 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>80</v>
       </c>
       <c r="F8" s="1">
@@ -3732,7 +3752,7 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>160</v>
       </c>
       <c r="F9" s="1">
@@ -3758,7 +3778,7 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>320</v>
       </c>
       <c r="F10" s="1">
@@ -3784,7 +3804,7 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>480</v>
       </c>
       <c r="F11" s="1">
@@ -3810,7 +3830,7 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>640</v>
       </c>
       <c r="F12" s="1">
@@ -3836,7 +3856,7 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>800</v>
       </c>
       <c r="F13" s="1">
@@ -3862,7 +3882,7 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>960</v>
       </c>
       <c r="F14" s="1">
@@ -3888,8 +3908,8 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="1">
-        <v>1200</v>
+      <c r="E15" s="4">
+        <v>1120</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3914,8 +3934,8 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="1">
-        <v>1500</v>
+      <c r="E16" s="4">
+        <v>1280</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3944,7 +3964,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H16"/>
+      <selection activeCell="E2" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4017,7 +4037,7 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>4</v>
       </c>
       <c r="F3" s="1">
@@ -4043,7 +4063,7 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>10</v>
       </c>
       <c r="F4" s="1">
@@ -4069,7 +4089,7 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>20</v>
       </c>
       <c r="F5" s="1">
@@ -4095,7 +4115,7 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>40</v>
       </c>
       <c r="F6" s="1">
@@ -4121,7 +4141,7 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>80</v>
       </c>
       <c r="F7" s="1">
@@ -4147,7 +4167,7 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>160</v>
       </c>
       <c r="F8" s="1">
@@ -4173,7 +4193,7 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>320</v>
       </c>
       <c r="F9" s="1">
@@ -4199,7 +4219,7 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>640</v>
       </c>
       <c r="F10" s="1">
@@ -4225,7 +4245,7 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>960</v>
       </c>
       <c r="F11" s="1">
@@ -4251,7 +4271,7 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>1280</v>
       </c>
       <c r="F12" s="1">
@@ -4277,7 +4297,7 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>1600</v>
       </c>
       <c r="F13" s="1">
@@ -4303,7 +4323,7 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>1920</v>
       </c>
       <c r="F14" s="1">
@@ -4329,8 +4349,8 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="1">
-        <v>2400</v>
+      <c r="E15" s="4">
+        <v>2240</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -4355,8 +4375,8 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="1">
-        <v>3000</v>
+      <c r="E16" s="4">
+        <v>2560</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -4385,7 +4405,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H19"/>
+      <selection activeCell="F2" sqref="F2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4461,7 +4481,7 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="4">
@@ -4487,7 +4507,7 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>5</v>
       </c>
       <c r="G4" s="4">
@@ -4513,7 +4533,7 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>10</v>
       </c>
       <c r="G5" s="4">
@@ -4539,7 +4559,7 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>20</v>
       </c>
       <c r="G6" s="4">
@@ -4565,7 +4585,7 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>40</v>
       </c>
       <c r="G7" s="4">
@@ -4591,7 +4611,7 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>80</v>
       </c>
       <c r="G8" s="4">
@@ -4617,7 +4637,7 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>160</v>
       </c>
       <c r="G9" s="4">
@@ -4643,7 +4663,7 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>320</v>
       </c>
       <c r="G10" s="4">
@@ -4669,7 +4689,7 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>480</v>
       </c>
       <c r="G11" s="4">
@@ -4695,7 +4715,7 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>640</v>
       </c>
       <c r="G12" s="4">
@@ -4721,7 +4741,7 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>800</v>
       </c>
       <c r="G13" s="4">
@@ -4747,7 +4767,7 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>960</v>
       </c>
       <c r="G14" s="1">
@@ -4773,8 +4793,8 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="1">
-        <v>1200</v>
+      <c r="F15" s="4">
+        <v>1120</v>
       </c>
       <c r="G15" s="1">
         <v>390000</v>
@@ -4799,8 +4819,8 @@
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="1">
-        <v>1500</v>
+      <c r="F16" s="4">
+        <v>1280</v>
       </c>
       <c r="G16" s="1">
         <v>432000</v>
@@ -4825,8 +4845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H19"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4902,7 +4922,7 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="4">
@@ -4928,7 +4948,7 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>5</v>
       </c>
       <c r="G4" s="4">
@@ -4954,7 +4974,7 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>10</v>
       </c>
       <c r="G5" s="4">
@@ -4980,7 +5000,7 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>20</v>
       </c>
       <c r="G6" s="4">
@@ -5006,7 +5026,7 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>40</v>
       </c>
       <c r="G7" s="4">
@@ -5032,7 +5052,7 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>80</v>
       </c>
       <c r="G8" s="4">
@@ -5058,7 +5078,7 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>160</v>
       </c>
       <c r="G9" s="4">
@@ -5084,7 +5104,7 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>320</v>
       </c>
       <c r="G10" s="4">
@@ -5110,7 +5130,7 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>480</v>
       </c>
       <c r="G11" s="4">
@@ -5136,7 +5156,7 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>640</v>
       </c>
       <c r="G12" s="4">
@@ -5162,7 +5182,7 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>800</v>
       </c>
       <c r="G13" s="4">
@@ -5188,7 +5208,7 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>960</v>
       </c>
       <c r="G14" s="1">
@@ -5214,8 +5234,8 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="1">
-        <v>1200</v>
+      <c r="F15" s="4">
+        <v>1120</v>
       </c>
       <c r="G15" s="1">
         <v>390000</v>
@@ -5240,8 +5260,8 @@
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="1">
-        <v>1500</v>
+      <c r="F16" s="4">
+        <v>1280</v>
       </c>
       <c r="G16" s="1">
         <v>432000</v>
@@ -5267,7 +5287,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H19"/>
+      <selection activeCell="F2" sqref="F2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5343,7 +5363,7 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="4">
@@ -5369,7 +5389,7 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>5</v>
       </c>
       <c r="G4" s="4">
@@ -5395,7 +5415,7 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>10</v>
       </c>
       <c r="G5" s="4">
@@ -5421,7 +5441,7 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>20</v>
       </c>
       <c r="G6" s="4">
@@ -5447,7 +5467,7 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>40</v>
       </c>
       <c r="G7" s="4">
@@ -5473,7 +5493,7 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>80</v>
       </c>
       <c r="G8" s="4">
@@ -5499,7 +5519,7 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>160</v>
       </c>
       <c r="G9" s="4">
@@ -5525,7 +5545,7 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>320</v>
       </c>
       <c r="G10" s="4">
@@ -5551,7 +5571,7 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>480</v>
       </c>
       <c r="G11" s="4">
@@ -5577,7 +5597,7 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>640</v>
       </c>
       <c r="G12" s="4">
@@ -5603,7 +5623,7 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>800</v>
       </c>
       <c r="G13" s="4">
@@ -5629,7 +5649,7 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>960</v>
       </c>
       <c r="G14" s="1">
@@ -5655,8 +5675,8 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="1">
-        <v>1200</v>
+      <c r="F15" s="4">
+        <v>1120</v>
       </c>
       <c r="G15" s="1">
         <v>390000</v>
@@ -5681,8 +5701,8 @@
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="1">
-        <v>1500</v>
+      <c r="F16" s="4">
+        <v>1280</v>
       </c>
       <c r="G16" s="1">
         <v>432000</v>
@@ -5708,7 +5728,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H19"/>
+      <selection activeCell="F2" sqref="F2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5784,7 +5804,7 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="4">
@@ -5810,7 +5830,7 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>5</v>
       </c>
       <c r="G4" s="4">
@@ -5836,7 +5856,7 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>10</v>
       </c>
       <c r="G5" s="4">
@@ -5862,7 +5882,7 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>20</v>
       </c>
       <c r="G6" s="4">
@@ -5888,7 +5908,7 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>40</v>
       </c>
       <c r="G7" s="4">
@@ -5914,7 +5934,7 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>80</v>
       </c>
       <c r="G8" s="4">
@@ -5940,7 +5960,7 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>160</v>
       </c>
       <c r="G9" s="4">
@@ -5966,7 +5986,7 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>320</v>
       </c>
       <c r="G10" s="4">
@@ -5992,7 +6012,7 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>480</v>
       </c>
       <c r="G11" s="4">
@@ -6018,7 +6038,7 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>640</v>
       </c>
       <c r="G12" s="4">
@@ -6044,7 +6064,7 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>800</v>
       </c>
       <c r="G13" s="4">
@@ -6070,7 +6090,7 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>960</v>
       </c>
       <c r="G14" s="1">
@@ -6096,8 +6116,8 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="1">
-        <v>1200</v>
+      <c r="F15" s="4">
+        <v>1120</v>
       </c>
       <c r="G15" s="1">
         <v>390000</v>
@@ -6122,8 +6142,8 @@
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="1">
-        <v>1500</v>
+      <c r="F16" s="4">
+        <v>1280</v>
       </c>
       <c r="G16" s="1">
         <v>432000</v>
@@ -6149,7 +6169,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6216,7 +6236,7 @@
       <c r="B3" s="1">
         <v>16320</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="1">
@@ -6242,7 +6262,7 @@
       <c r="B4" s="1">
         <v>42760</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>5</v>
       </c>
       <c r="D4" s="1">
@@ -6268,7 +6288,7 @@
       <c r="B5" s="1">
         <v>79320</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>10</v>
       </c>
       <c r="D5" s="1">
@@ -6294,7 +6314,7 @@
       <c r="B6" s="1">
         <v>130500</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>20</v>
       </c>
       <c r="D6" s="1">
@@ -6320,7 +6340,7 @@
       <c r="B7" s="1">
         <v>196880</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>40</v>
       </c>
       <c r="D7" s="1">
@@ -6346,7 +6366,7 @@
       <c r="B8" s="1">
         <v>373500</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>80</v>
       </c>
       <c r="D8" s="1">
@@ -6372,7 +6392,7 @@
       <c r="B9" s="1">
         <v>514500</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>160</v>
       </c>
       <c r="D9" s="1">
@@ -6398,7 +6418,7 @@
       <c r="B10" s="1">
         <v>678000</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>320</v>
       </c>
       <c r="D10" s="1">
@@ -6424,7 +6444,7 @@
       <c r="B11" s="1">
         <v>877500</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>480</v>
       </c>
       <c r="D11" s="1">
@@ -6450,7 +6470,7 @@
       <c r="B12" s="1">
         <v>1110000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>640</v>
       </c>
       <c r="D12" s="1">
@@ -6476,7 +6496,7 @@
       <c r="B13" s="1">
         <v>1722200</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>800</v>
       </c>
       <c r="D13" s="1">
@@ -6502,7 +6522,7 @@
       <c r="B14" s="1">
         <v>2115000</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>960</v>
       </c>
       <c r="D14" s="1">
@@ -6528,8 +6548,8 @@
       <c r="B15" s="1">
         <v>2547200</v>
       </c>
-      <c r="C15" s="1">
-        <v>1200</v>
+      <c r="C15" s="4">
+        <v>1120</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -6554,8 +6574,8 @@
       <c r="B16" s="1">
         <v>3600000</v>
       </c>
-      <c r="C16" s="1">
-        <v>1500</v>
+      <c r="C16" s="4">
+        <v>1280</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -6590,7 +6610,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6666,7 +6686,7 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>4</v>
       </c>
       <c r="G3" s="4">
@@ -6692,7 +6712,7 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>10</v>
       </c>
       <c r="G4" s="4">
@@ -6718,7 +6738,7 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>20</v>
       </c>
       <c r="G5" s="4">
@@ -6744,7 +6764,7 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>40</v>
       </c>
       <c r="G6" s="4">
@@ -6770,7 +6790,7 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>80</v>
       </c>
       <c r="G7" s="4">
@@ -6796,7 +6816,7 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>160</v>
       </c>
       <c r="G8" s="4">
@@ -6822,7 +6842,7 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>320</v>
       </c>
       <c r="G9" s="4">
@@ -6848,7 +6868,7 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>640</v>
       </c>
       <c r="G10" s="4">
@@ -6874,7 +6894,7 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>960</v>
       </c>
       <c r="G11" s="4">
@@ -6900,7 +6920,7 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>1280</v>
       </c>
       <c r="G12" s="4">
@@ -6926,7 +6946,7 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>1600</v>
       </c>
       <c r="G13" s="4">
@@ -6952,7 +6972,7 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>1920</v>
       </c>
       <c r="G14" s="4">
@@ -6978,8 +6998,8 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="1">
-        <v>2400</v>
+      <c r="F15" s="4">
+        <v>2240</v>
       </c>
       <c r="G15" s="1">
         <v>778800</v>
@@ -7004,8 +7024,8 @@
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="1">
-        <v>3000</v>
+      <c r="F16" s="4">
+        <v>2560</v>
       </c>
       <c r="G16" s="1">
         <v>864000</v>
@@ -7031,7 +7051,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7098,7 +7118,7 @@
       <c r="B3" s="1">
         <v>16320</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="1">
@@ -7124,7 +7144,7 @@
       <c r="B4" s="1">
         <v>42760</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>5</v>
       </c>
       <c r="D4" s="1">
@@ -7150,7 +7170,7 @@
       <c r="B5" s="1">
         <v>79320</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>10</v>
       </c>
       <c r="D5" s="1">
@@ -7176,7 +7196,7 @@
       <c r="B6" s="1">
         <v>130500</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>20</v>
       </c>
       <c r="D6" s="1">
@@ -7202,7 +7222,7 @@
       <c r="B7" s="1">
         <v>196880</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>40</v>
       </c>
       <c r="D7" s="1">
@@ -7228,7 +7248,7 @@
       <c r="B8" s="1">
         <v>373500</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>80</v>
       </c>
       <c r="D8" s="1">
@@ -7254,7 +7274,7 @@
       <c r="B9" s="1">
         <v>514500</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>160</v>
       </c>
       <c r="D9" s="1">
@@ -7280,7 +7300,7 @@
       <c r="B10" s="1">
         <v>678000</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>320</v>
       </c>
       <c r="D10" s="1">
@@ -7306,7 +7326,7 @@
       <c r="B11" s="1">
         <v>877500</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>480</v>
       </c>
       <c r="D11" s="1">
@@ -7332,7 +7352,7 @@
       <c r="B12" s="1">
         <v>1110000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>640</v>
       </c>
       <c r="D12" s="1">
@@ -7358,7 +7378,7 @@
       <c r="B13" s="1">
         <v>1722200</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>800</v>
       </c>
       <c r="D13" s="1">
@@ -7384,7 +7404,7 @@
       <c r="B14" s="1">
         <v>2115000</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>960</v>
       </c>
       <c r="D14" s="1">
@@ -7410,8 +7430,8 @@
       <c r="B15" s="1">
         <v>2547200</v>
       </c>
-      <c r="C15" s="1">
-        <v>1200</v>
+      <c r="C15" s="4">
+        <v>1120</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -7436,8 +7456,8 @@
       <c r="B16" s="1">
         <v>3600000</v>
       </c>
-      <c r="C16" s="1">
-        <v>1500</v>
+      <c r="C16" s="4">
+        <v>1280</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -7472,7 +7492,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7539,7 +7559,7 @@
       <c r="B3" s="1">
         <v>16320</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="1">
@@ -7565,7 +7585,7 @@
       <c r="B4" s="1">
         <v>42760</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>5</v>
       </c>
       <c r="D4" s="1">
@@ -7591,7 +7611,7 @@
       <c r="B5" s="1">
         <v>79320</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>10</v>
       </c>
       <c r="D5" s="1">
@@ -7617,7 +7637,7 @@
       <c r="B6" s="1">
         <v>130500</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>20</v>
       </c>
       <c r="D6" s="1">
@@ -7643,7 +7663,7 @@
       <c r="B7" s="1">
         <v>196880</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>40</v>
       </c>
       <c r="D7" s="1">
@@ -7669,7 +7689,7 @@
       <c r="B8" s="1">
         <v>373500</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>80</v>
       </c>
       <c r="D8" s="1">
@@ -7695,7 +7715,7 @@
       <c r="B9" s="1">
         <v>514500</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>160</v>
       </c>
       <c r="D9" s="1">
@@ -7721,7 +7741,7 @@
       <c r="B10" s="1">
         <v>678000</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>320</v>
       </c>
       <c r="D10" s="1">
@@ -7747,7 +7767,7 @@
       <c r="B11" s="1">
         <v>877500</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>480</v>
       </c>
       <c r="D11" s="1">
@@ -7773,7 +7793,7 @@
       <c r="B12" s="1">
         <v>1110000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>640</v>
       </c>
       <c r="D12" s="1">
@@ -7799,7 +7819,7 @@
       <c r="B13" s="1">
         <v>1722200</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>800</v>
       </c>
       <c r="D13" s="1">
@@ -7825,7 +7845,7 @@
       <c r="B14" s="1">
         <v>2115000</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>960</v>
       </c>
       <c r="D14" s="1">
@@ -7851,8 +7871,8 @@
       <c r="B15" s="1">
         <v>2547200</v>
       </c>
-      <c r="C15" s="1">
-        <v>1200</v>
+      <c r="C15" s="4">
+        <v>1120</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -7877,8 +7897,8 @@
       <c r="B16" s="1">
         <v>3600000</v>
       </c>
-      <c r="C16" s="1">
-        <v>1500</v>
+      <c r="C16" s="4">
+        <v>1280</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -7912,8 +7932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7980,7 +8000,7 @@
       <c r="B3" s="1">
         <v>32640</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>4</v>
       </c>
       <c r="D3" s="1">
@@ -8006,7 +8026,7 @@
       <c r="B4" s="1">
         <v>85520</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>10</v>
       </c>
       <c r="D4" s="1">
@@ -8032,7 +8052,7 @@
       <c r="B5" s="1">
         <v>158640</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>20</v>
       </c>
       <c r="D5" s="1">
@@ -8058,7 +8078,7 @@
       <c r="B6" s="1">
         <v>261000</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>40</v>
       </c>
       <c r="D6" s="1">
@@ -8084,7 +8104,7 @@
       <c r="B7" s="1">
         <v>393760</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>80</v>
       </c>
       <c r="D7" s="1">
@@ -8110,7 +8130,7 @@
       <c r="B8" s="1">
         <v>747000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>160</v>
       </c>
       <c r="D8" s="1">
@@ -8136,7 +8156,7 @@
       <c r="B9" s="1">
         <v>1029000</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>320</v>
       </c>
       <c r="D9" s="1">
@@ -8162,7 +8182,7 @@
       <c r="B10" s="1">
         <v>1356000</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>640</v>
       </c>
       <c r="D10" s="1">
@@ -8188,7 +8208,7 @@
       <c r="B11" s="1">
         <v>1755000</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>960</v>
       </c>
       <c r="D11" s="1">
@@ -8214,7 +8234,7 @@
       <c r="B12" s="1">
         <v>2220000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>1280</v>
       </c>
       <c r="D12" s="1">
@@ -8240,7 +8260,7 @@
       <c r="B13" s="1">
         <v>3444400</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>1600</v>
       </c>
       <c r="D13" s="1">
@@ -8266,7 +8286,7 @@
       <c r="B14" s="1">
         <v>4230000</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>1920</v>
       </c>
       <c r="D14" s="1">
@@ -8292,8 +8312,8 @@
       <c r="B15" s="1">
         <v>5094400</v>
       </c>
-      <c r="C15" s="1">
-        <v>2400</v>
+      <c r="C15" s="4">
+        <v>2240</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -8318,8 +8338,8 @@
       <c r="B16" s="1">
         <v>7200000</v>
       </c>
-      <c r="C16" s="1">
-        <v>3000</v>
+      <c r="C16" s="4">
+        <v>2560</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -8354,7 +8374,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H16"/>
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8424,7 +8444,7 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
       <c r="E3" s="1">
@@ -8450,7 +8470,7 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>5</v>
       </c>
       <c r="E4" s="1">
@@ -8476,7 +8496,7 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>10</v>
       </c>
       <c r="E5" s="1">
@@ -8502,7 +8522,7 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>20</v>
       </c>
       <c r="E6" s="1">
@@ -8528,7 +8548,7 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>40</v>
       </c>
       <c r="E7" s="1">
@@ -8554,7 +8574,7 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>80</v>
       </c>
       <c r="E8" s="1">
@@ -8580,7 +8600,7 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>160</v>
       </c>
       <c r="E9" s="1">
@@ -8606,7 +8626,7 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>320</v>
       </c>
       <c r="E10" s="1">
@@ -8632,7 +8652,7 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>480</v>
       </c>
       <c r="E11" s="1">
@@ -8658,7 +8678,7 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>640</v>
       </c>
       <c r="E12" s="1">
@@ -8684,7 +8704,7 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>800</v>
       </c>
       <c r="E13" s="1">
@@ -8710,7 +8730,7 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>960</v>
       </c>
       <c r="E14" s="1">
@@ -8736,8 +8756,8 @@
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="1">
-        <v>1200</v>
+      <c r="D15" s="4">
+        <v>1120</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -8762,8 +8782,8 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="1">
-        <v>1500</v>
+      <c r="D16" s="4">
+        <v>1280</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -8795,7 +8815,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H16"/>
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8865,7 +8885,7 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
       <c r="E3" s="1">
@@ -8891,7 +8911,7 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>5</v>
       </c>
       <c r="E4" s="1">
@@ -8917,7 +8937,7 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>10</v>
       </c>
       <c r="E5" s="1">
@@ -8943,7 +8963,7 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>20</v>
       </c>
       <c r="E6" s="1">
@@ -8969,7 +8989,7 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>40</v>
       </c>
       <c r="E7" s="1">
@@ -8995,7 +9015,7 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>80</v>
       </c>
       <c r="E8" s="1">
@@ -9021,7 +9041,7 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>160</v>
       </c>
       <c r="E9" s="1">
@@ -9047,7 +9067,7 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>320</v>
       </c>
       <c r="E10" s="1">
@@ -9073,7 +9093,7 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>480</v>
       </c>
       <c r="E11" s="1">
@@ -9099,7 +9119,7 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>640</v>
       </c>
       <c r="E12" s="1">
@@ -9125,7 +9145,7 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>800</v>
       </c>
       <c r="E13" s="1">
@@ -9151,7 +9171,7 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>960</v>
       </c>
       <c r="E14" s="1">
@@ -9177,8 +9197,8 @@
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="1">
-        <v>1200</v>
+      <c r="D15" s="4">
+        <v>1120</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -9203,8 +9223,8 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="1">
-        <v>1500</v>
+      <c r="D16" s="4">
+        <v>1280</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -9236,7 +9256,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H16"/>
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9306,7 +9326,7 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
       <c r="E3" s="1">
@@ -9332,7 +9352,7 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>5</v>
       </c>
       <c r="E4" s="1">
@@ -9358,7 +9378,7 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>10</v>
       </c>
       <c r="E5" s="1">
@@ -9384,7 +9404,7 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>20</v>
       </c>
       <c r="E6" s="1">
@@ -9410,7 +9430,7 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>40</v>
       </c>
       <c r="E7" s="1">
@@ -9436,7 +9456,7 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>80</v>
       </c>
       <c r="E8" s="1">
@@ -9462,7 +9482,7 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>160</v>
       </c>
       <c r="E9" s="1">
@@ -9488,7 +9508,7 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>320</v>
       </c>
       <c r="E10" s="1">
@@ -9514,7 +9534,7 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>480</v>
       </c>
       <c r="E11" s="1">
@@ -9540,7 +9560,7 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>640</v>
       </c>
       <c r="E12" s="1">
@@ -9566,7 +9586,7 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>800</v>
       </c>
       <c r="E13" s="1">
@@ -9592,7 +9612,7 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>960</v>
       </c>
       <c r="E14" s="1">
@@ -9618,8 +9638,8 @@
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="1">
-        <v>1200</v>
+      <c r="D15" s="4">
+        <v>1120</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -9644,8 +9664,8 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="1">
-        <v>1500</v>
+      <c r="D16" s="4">
+        <v>1280</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -9677,7 +9697,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H16"/>
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9747,7 +9767,7 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
       <c r="E3" s="1">
@@ -9773,7 +9793,7 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>5</v>
       </c>
       <c r="E4" s="1">
@@ -9799,7 +9819,7 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>10</v>
       </c>
       <c r="E5" s="1">
@@ -9825,7 +9845,7 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>20</v>
       </c>
       <c r="E6" s="1">
@@ -9851,7 +9871,7 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>40</v>
       </c>
       <c r="E7" s="1">
@@ -9877,7 +9897,7 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>80</v>
       </c>
       <c r="E8" s="1">
@@ -9903,7 +9923,7 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>160</v>
       </c>
       <c r="E9" s="1">
@@ -9929,7 +9949,7 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>320</v>
       </c>
       <c r="E10" s="1">
@@ -9955,7 +9975,7 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>480</v>
       </c>
       <c r="E11" s="1">
@@ -9981,7 +10001,7 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>640</v>
       </c>
       <c r="E12" s="1">
@@ -10007,7 +10027,7 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>800</v>
       </c>
       <c r="E13" s="1">
@@ -10033,7 +10053,7 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>960</v>
       </c>
       <c r="E14" s="1">
@@ -10059,8 +10079,8 @@
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="1">
-        <v>1200</v>
+      <c r="D15" s="4">
+        <v>1120</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -10085,8 +10105,8 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="1">
-        <v>1500</v>
+      <c r="D16" s="4">
+        <v>1280</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
